--- a/LM_JM.xlsx
+++ b/LM_JM.xlsx
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>44.23713924092003</v>
+        <v>34.79259339015004</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1577,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>31.26145084573667</v>
+        <v>39.42440608447085</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1594,10 +1594,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>47.45828581741323</v>
+        <v>41.55406781237072</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1611,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>23.44452457638831</v>
+        <v>15.73375448909193</v>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1628,7 +1628,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>55.79954867370235</v>
+        <v>51.69436596914886</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
@@ -1645,7 +1645,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>42.45994389725698</v>
+        <v>45.45228327563446</v>
       </c>
       <c r="E7" t="n">
         <v>8</v>
@@ -1662,10 +1662,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>72.58824116466788</v>
+        <v>76.87578370463594</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1679,10 +1679,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>40.48466467520818</v>
+        <v>48.08159546423884</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1696,10 +1696,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>40.48466467520818</v>
+        <v>48.08159546423884</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1713,10 +1713,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>41.93593334323219</v>
+        <v>45.88415497867477</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1730,10 +1730,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>42.27876707165581</v>
+        <v>42.5568219354771</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1747,10 +1747,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>74.83745044569291</v>
+        <v>69.4590485837012</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1764,10 +1764,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>27.61807484315329</v>
+        <v>34.22768910323954</v>
       </c>
       <c r="E14" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1781,10 +1781,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>52.78342716438146</v>
+        <v>39.81743940532819</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1798,7 +1798,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>150.8592938743496</v>
+        <v>133.4362297037178</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -1815,10 +1815,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>39.12545592435057</v>
+        <v>44.66094232259761</v>
       </c>
       <c r="E17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1832,10 +1832,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>27.14932178761983</v>
+        <v>25.95926396217074</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1849,10 +1849,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>27.14932178761983</v>
+        <v>25.95926396217074</v>
       </c>
       <c r="E19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1866,10 +1866,10 @@
         <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>16.90040454082415</v>
+        <v>10.71161021065627</v>
       </c>
       <c r="E20" t="n">
-        <v>891</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1883,10 +1883,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>29.07326575945634</v>
+        <v>23.5878930523514</v>
       </c>
       <c r="E21" t="n">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1900,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>8.02338809998778</v>
+        <v>1.668193443182169</v>
       </c>
       <c r="E22" t="n">
-        <v>2418</v>
+        <v>7667</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1917,10 +1917,10 @@
         <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>33.07092922412956</v>
+        <v>29.03953720329614</v>
       </c>
       <c r="E23" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1934,10 +1934,10 @@
         <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>19.91059098496005</v>
+        <v>23.10605408782262</v>
       </c>
       <c r="E24" t="n">
-        <v>637</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1951,10 +1951,10 @@
         <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>12.91552493620474</v>
+        <v>8.575793886874607</v>
       </c>
       <c r="E25" t="n">
-        <v>1359</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1968,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>38.45895884113922</v>
+        <v>35.43919582695234</v>
       </c>
       <c r="E26" t="n">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1985,10 +1985,10 @@
         <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>30.82907284264305</v>
+        <v>20.19612911493722</v>
       </c>
       <c r="E27" t="n">
-        <v>197</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2002,10 +2002,10 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>17.97920427513884</v>
+        <v>23.56180644555509</v>
       </c>
       <c r="E28" t="n">
-        <v>759</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2019,10 +2019,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>18.54414926805491</v>
+        <v>18.49104889611023</v>
       </c>
       <c r="E29" t="n">
-        <v>720</v>
+        <v>514</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2036,10 +2036,10 @@
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45759000641235</v>
+        <v>25.77918990971175</v>
       </c>
       <c r="E30" t="n">
-        <v>149</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2053,10 +2053,10 @@
         <v>11</v>
       </c>
       <c r="D31" t="n">
-        <v>31.75766365068534</v>
+        <v>26.45516607618785</v>
       </c>
       <c r="E31" t="n">
-        <v>168</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2070,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>20.72966179963312</v>
+        <v>25.18578135086323</v>
       </c>
       <c r="E32" t="n">
-        <v>589</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2087,10 +2087,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>43.84604444931051</v>
+        <v>33.38045310119756</v>
       </c>
       <c r="E33" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2104,10 +2104,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>28.65159306492174</v>
+        <v>29.35802941712932</v>
       </c>
       <c r="E34" t="n">
-        <v>252</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2121,10 +2121,10 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>33.27726946433421</v>
+        <v>33.65293686560079</v>
       </c>
       <c r="E35" t="n">
-        <v>127</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2138,10 +2138,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>42.40536658873738</v>
+        <v>29.87278345945425</v>
       </c>
       <c r="E36" t="n">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2155,10 +2155,10 @@
         <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>13.52550350644639</v>
+        <v>4.188077058939403</v>
       </c>
       <c r="E37" t="n">
-        <v>1281</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2172,10 +2172,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>42.73794522347262</v>
+        <v>36.08817964908609</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2189,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>45.76217106423226</v>
+        <v>37.03309293033176</v>
       </c>
       <c r="E39" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2206,10 +2206,10 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>37.13713298120943</v>
+        <v>35.52697584128477</v>
       </c>
       <c r="E40" t="n">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2223,10 +2223,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>48.19515991343414</v>
+        <v>35.71365748522363</v>
       </c>
       <c r="E41" t="n">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2240,10 +2240,10 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>22.96503313129054</v>
+        <v>25.0110829118209</v>
       </c>
       <c r="E42" t="n">
-        <v>460</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2257,10 +2257,10 @@
         <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>21.03071994246369</v>
+        <v>15.54161891997797</v>
       </c>
       <c r="E43" t="n">
-        <v>573</v>
+        <v>794</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2274,10 +2274,10 @@
         <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>43.24497587902715</v>
+        <v>37.77737451631992</v>
       </c>
       <c r="E44" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2291,10 +2291,10 @@
         <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>32.75791014540575</v>
+        <v>25.5079436990228</v>
       </c>
       <c r="E45" t="n">
-        <v>141</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2308,10 +2308,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>36.46324672732469</v>
+        <v>30.90406665718831</v>
       </c>
       <c r="E46" t="n">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2325,10 +2325,10 @@
         <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>46.61666520604859</v>
+        <v>37.10866185382223</v>
       </c>
       <c r="E47" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2342,10 +2342,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>25.47250204357688</v>
+        <v>12.48128371046885</v>
       </c>
       <c r="E48" t="n">
-        <v>356</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2359,10 +2359,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>33.71336323957308</v>
+        <v>30.80563405350662</v>
       </c>
       <c r="E49" t="n">
-        <v>119</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2376,10 +2376,10 @@
         <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>28.28797516574144</v>
+        <v>16.98297382461284</v>
       </c>
       <c r="E50" t="n">
-        <v>260</v>
+        <v>639</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2393,10 +2393,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>50.32236620553488</v>
+        <v>38.66693878727712</v>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2410,10 +2410,10 @@
         <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>33.71196317164616</v>
+        <v>32.2208389770943</v>
       </c>
       <c r="E52" t="n">
-        <v>120</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2427,10 +2427,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="n">
-        <v>17.1607581807975</v>
+        <v>14.98736794595885</v>
       </c>
       <c r="E53" t="n">
-        <v>842</v>
+        <v>863</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2444,7 +2444,7 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>52.72659290739209</v>
+        <v>54.17655755562154</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -2461,10 +2461,10 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>17.72524115291492</v>
+        <v>13.20226591187412</v>
       </c>
       <c r="E55" t="n">
-        <v>788</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2478,10 +2478,10 @@
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>35.64955398370185</v>
+        <v>33.70465672385446</v>
       </c>
       <c r="E56" t="n">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2495,10 +2495,10 @@
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>51.60044411040698</v>
+        <v>43.09588470684047</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2512,10 +2512,10 @@
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>33.99634156533187</v>
+        <v>29.329751908286</v>
       </c>
       <c r="E58" t="n">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2529,10 +2529,10 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>29.52892846117319</v>
+        <v>22.67367784808154</v>
       </c>
       <c r="E59" t="n">
-        <v>229</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2546,10 +2546,10 @@
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>46.59510664127001</v>
+        <v>46.30385736382189</v>
       </c>
       <c r="E60" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2563,10 +2563,10 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>35.08308317739777</v>
+        <v>25.28422832301246</v>
       </c>
       <c r="E61" t="n">
-        <v>101</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2580,10 +2580,10 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>37.15193024381256</v>
+        <v>40.50892826090815</v>
       </c>
       <c r="E62" t="n">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2597,10 +2597,10 @@
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>44.5018827377509</v>
+        <v>36.94119020435873</v>
       </c>
       <c r="E63" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2614,10 +2614,10 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>37.53045855738284</v>
+        <v>32.0188461908073</v>
       </c>
       <c r="E64" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2631,10 +2631,10 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>40.50803329083507</v>
+        <v>35.43895773378174</v>
       </c>
       <c r="E65" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2648,7 +2648,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>47.57714786535828</v>
+        <v>41.32029739901389</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -2665,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>49.54655152936951</v>
+        <v>43.39826042886122</v>
       </c>
       <c r="E67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2682,10 +2682,10 @@
         <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>13.93498772294499</v>
+        <v>7.17477869004404</v>
       </c>
       <c r="E68" t="n">
-        <v>1221</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2699,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>50.04192989842744</v>
+        <v>47.28827682819598</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2716,10 +2716,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>43.69180522657784</v>
+        <v>40.23897881134175</v>
       </c>
       <c r="E70" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2733,10 +2733,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>48.49848974791287</v>
+        <v>43.21330716927499</v>
       </c>
       <c r="E71" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2750,7 +2750,7 @@
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>48.2911860965435</v>
+        <v>41.91422596926395</v>
       </c>
       <c r="E72" t="n">
         <v>8</v>
@@ -2767,10 +2767,10 @@
         <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>45.8576507330331</v>
+        <v>41.23927013875232</v>
       </c>
       <c r="E73" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2784,10 +2784,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>22.6295371101563</v>
+        <v>15.31560548998197</v>
       </c>
       <c r="E74" t="n">
-        <v>478</v>
+        <v>826</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2801,10 +2801,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4075556577317272</v>
+        <v>-4.791720781904326</v>
       </c>
       <c r="E75" t="n">
-        <v>8214</v>
+        <v>31343</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2818,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>-4.937232679962179</v>
+        <v>-9.810643426583642</v>
       </c>
       <c r="E76" t="n">
-        <v>26881</v>
+        <v>89220</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2835,10 +2835,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>59.24470544733231</v>
+        <v>64.04931494746165</v>
       </c>
       <c r="E77" t="n">
-        <v>33</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2852,10 +2852,10 @@
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>76.05188156961208</v>
+        <v>95.52733542568683</v>
       </c>
       <c r="E78" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2869,10 +2869,10 @@
         <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>60.4792010007431</v>
+        <v>55.16329447064602</v>
       </c>
       <c r="E79" t="n">
-        <v>30</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2886,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>27.57522169337621</v>
+        <v>42.57114958725884</v>
       </c>
       <c r="E80" t="n">
-        <v>641</v>
+        <v>794</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2903,10 +2903,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>70.59981751646802</v>
+        <v>43.00718479913723</v>
       </c>
       <c r="E81" t="n">
-        <v>15</v>
+        <v>780</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2920,10 +2920,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>7.975857504152245</v>
+        <v>57.74555048841227</v>
       </c>
       <c r="E82" t="n">
-        <v>2666</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2937,10 +2937,10 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>94.23988112196122</v>
+        <v>127.127988469725</v>
       </c>
       <c r="E83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2954,10 +2954,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>50.4452169928784</v>
+        <v>69.85901509800945</v>
       </c>
       <c r="E84" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2971,10 +2971,10 @@
         <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>84.64810563955882</v>
+        <v>86.00886086036294</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2988,10 +2988,10 @@
         <v>11</v>
       </c>
       <c r="D86" t="n">
-        <v>102.9178517731632</v>
+        <v>101.7212397793275</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3005,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="D87" t="n">
-        <v>71.74064724188761</v>
+        <v>76.94274416939763</v>
       </c>
       <c r="E87" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3022,10 +3022,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>58.67045462826789</v>
+        <v>30.13740239123444</v>
       </c>
       <c r="E88" t="n">
-        <v>34</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3039,7 +3039,7 @@
         <v>11</v>
       </c>
       <c r="D89" t="n">
-        <v>121.0556868683481</v>
+        <v>130.6941160437168</v>
       </c>
       <c r="E89" t="n">
         <v>1</v>
@@ -3056,10 +3056,10 @@
         <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>66.5356051098767</v>
+        <v>61.2015696545997</v>
       </c>
       <c r="E90" t="n">
-        <v>17</v>
+        <v>193</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3073,10 +3073,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>55.14121930667109</v>
+        <v>73.91487596413427</v>
       </c>
       <c r="E91" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3090,10 +3090,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>45.42313687721509</v>
+        <v>2.342822367338549</v>
       </c>
       <c r="E92" t="n">
-        <v>127</v>
+        <v>6883</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3107,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="D93" t="n">
-        <v>46.48585466552528</v>
+        <v>51.094208827585</v>
       </c>
       <c r="E93" t="n">
-        <v>108</v>
+        <v>433</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3124,10 +3124,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>119.2044881548917</v>
+        <v>92.4884478053508</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3141,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>39.49548201701512</v>
+        <v>41.65930112192007</v>
       </c>
       <c r="E95" t="n">
-        <v>228</v>
+        <v>849</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3158,10 +3158,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>42.44295060934543</v>
+        <v>49.57493324881381</v>
       </c>
       <c r="E96" t="n">
-        <v>175</v>
+        <v>503</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3175,10 +3175,10 @@
         <v>11</v>
       </c>
       <c r="D97" t="n">
-        <v>56.29165432948503</v>
+        <v>77.90221822083407</v>
       </c>
       <c r="E97" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3192,10 +3192,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>49.89995048009665</v>
+        <v>93.03758302114235</v>
       </c>
       <c r="E98" t="n">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3209,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>48.23765668243666</v>
+        <v>69.02775533731835</v>
       </c>
       <c r="E99" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3226,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>53.2307758412867</v>
+        <v>62.64091778876415</v>
       </c>
       <c r="E100" t="n">
-        <v>56</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3243,10 +3243,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>53.17842868268032</v>
+        <v>62.44348574808017</v>
       </c>
       <c r="E101" t="n">
-        <v>57</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3260,10 +3260,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>56.79372971482302</v>
+        <v>101.9584540065803</v>
       </c>
       <c r="E102" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3277,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>46.48453722755532</v>
+        <v>70.25713774404625</v>
       </c>
       <c r="E103" t="n">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3294,10 +3294,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>43.69147782507214</v>
+        <v>70.83551657987704</v>
       </c>
       <c r="E104" t="n">
-        <v>148</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3311,10 +3311,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>23.97943975789082</v>
+        <v>99.23902843665635</v>
       </c>
       <c r="E105" t="n">
-        <v>850</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3328,10 +3328,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>13.18461858543996</v>
+        <v>35.10187623603148</v>
       </c>
       <c r="E106" t="n">
-        <v>1817</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3345,10 +3345,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>41.20345607817006</v>
+        <v>89.27726656992431</v>
       </c>
       <c r="E107" t="n">
-        <v>189</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3362,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>45.95219604373231</v>
+        <v>50.66484601753223</v>
       </c>
       <c r="E108" t="n">
-        <v>118</v>
+        <v>453</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3379,10 +3379,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>51.76243210167378</v>
+        <v>44.60447124637292</v>
       </c>
       <c r="E109" t="n">
-        <v>65</v>
+        <v>710</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3396,10 +3396,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>89.80219561268251</v>
+        <v>96.36736410201036</v>
       </c>
       <c r="E110" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3413,10 +3413,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>65.10146913165106</v>
+        <v>86.5041586963537</v>
       </c>
       <c r="E111" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3430,10 +3430,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>54.10853177136767</v>
+        <v>80.40567275392823</v>
       </c>
       <c r="E112" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3447,10 +3447,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>34.66514070729383</v>
+        <v>69.63331509812426</v>
       </c>
       <c r="E113" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3464,10 +3464,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>17.41637621382405</v>
+        <v>52.66732201614315</v>
       </c>
       <c r="E114" t="n">
-        <v>1375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3481,10 +3481,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>20.16143210148553</v>
+        <v>17.35648383489546</v>
       </c>
       <c r="E115" t="n">
-        <v>57</v>
+        <v>385</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3498,10 +3498,10 @@
         <v>11</v>
       </c>
       <c r="D116" t="n">
-        <v>12.33752041841882</v>
+        <v>32.79165266273704</v>
       </c>
       <c r="E116" t="n">
-        <v>400</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3515,10 +3515,10 @@
         <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>12.73083558929126</v>
+        <v>50.45514505874441</v>
       </c>
       <c r="E117" t="n">
-        <v>359</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3532,10 +3532,10 @@
         <v>11</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3060357042833566</v>
+        <v>23.80126211533504</v>
       </c>
       <c r="E118" t="n">
-        <v>3896</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3549,10 +3549,10 @@
         <v>11</v>
       </c>
       <c r="D119" t="n">
-        <v>11.08980047198019</v>
+        <v>45.25832232270795</v>
       </c>
       <c r="E119" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3566,10 +3566,10 @@
         <v>11</v>
       </c>
       <c r="D120" t="n">
-        <v>6.766373767095249</v>
+        <v>37.14218913931889</v>
       </c>
       <c r="E120" t="n">
-        <v>1276</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3583,10 +3583,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>32.70721741678756</v>
+        <v>31.33389376502105</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3600,10 +3600,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>-4.078504422142721</v>
+        <v>14.90839220835056</v>
       </c>
       <c r="E122" t="n">
-        <v>9338</v>
+        <v>513</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3617,10 +3617,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="n">
-        <v>-3.716211041601991</v>
+        <v>29.16125518804763</v>
       </c>
       <c r="E123" t="n">
-        <v>8639</v>
+        <v>83</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3634,10 +3634,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>9.851773918419401</v>
+        <v>11.25163193780903</v>
       </c>
       <c r="E124" t="n">
-        <v>707</v>
+        <v>833</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3651,10 +3651,10 @@
         <v>11</v>
       </c>
       <c r="D125" t="n">
-        <v>3.330465948514384</v>
+        <v>32.11132723705889</v>
       </c>
       <c r="E125" t="n">
-        <v>2302</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3668,10 +3668,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>15.08427215634572</v>
+        <v>42.78237947641454</v>
       </c>
       <c r="E126" t="n">
-        <v>208</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3685,10 +3685,10 @@
         <v>11</v>
       </c>
       <c r="D127" t="n">
-        <v>1.934831572539199</v>
+        <v>29.76894223087582</v>
       </c>
       <c r="E127" t="n">
-        <v>2942</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3702,10 +3702,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>18.43617983075135</v>
+        <v>36.63406502376278</v>
       </c>
       <c r="E128" t="n">
-        <v>93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3719,10 +3719,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>5.989768125583748</v>
+        <v>30.26091029909785</v>
       </c>
       <c r="E129" t="n">
-        <v>1465</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3736,10 +3736,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>-4.106660228600376</v>
+        <v>-1.311128265035713</v>
       </c>
       <c r="E130" t="n">
-        <v>9386</v>
+        <v>6018</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3753,10 +3753,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>1.330446503395454</v>
+        <v>1.663745307977834</v>
       </c>
       <c r="E131" t="n">
-        <v>3236</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3770,10 +3770,10 @@
         <v>11</v>
       </c>
       <c r="D132" t="n">
-        <v>24.17964195203375</v>
+        <v>24.57513752621774</v>
       </c>
       <c r="E132" t="n">
-        <v>20</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3787,10 +3787,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>11.03029927581398</v>
+        <v>32.98490703923307</v>
       </c>
       <c r="E133" t="n">
-        <v>538</v>
+        <v>45</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3804,10 +3804,10 @@
         <v>11</v>
       </c>
       <c r="D134" t="n">
-        <v>7.923415018723542</v>
+        <v>40.81924511515948</v>
       </c>
       <c r="E134" t="n">
-        <v>1039</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3821,10 +3821,10 @@
         <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>17.50951699427136</v>
+        <v>45.12545827034378</v>
       </c>
       <c r="E135" t="n">
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3838,10 +3838,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>9.99846441192172</v>
+        <v>30.68162716692481</v>
       </c>
       <c r="E136" t="n">
-        <v>685</v>
+        <v>67</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3855,10 +3855,10 @@
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>7.13279665130344</v>
+        <v>33.9667866120752</v>
       </c>
       <c r="E137" t="n">
-        <v>1200</v>
+        <v>38</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3872,10 +3872,10 @@
         <v>11</v>
       </c>
       <c r="D138" t="n">
-        <v>15.05322223763003</v>
+        <v>36.3891502340821</v>
       </c>
       <c r="E138" t="n">
-        <v>212</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3889,10 +3889,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>7.013357855562102</v>
+        <v>34.5280642241646</v>
       </c>
       <c r="E139" t="n">
-        <v>1224</v>
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3906,10 +3906,10 @@
         <v>11</v>
       </c>
       <c r="D140" t="n">
-        <v>7.308137701854282</v>
+        <v>33.21121075033309</v>
       </c>
       <c r="E140" t="n">
-        <v>1161</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3923,10 +3923,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>-6.795335307727068</v>
+        <v>-10.66446565040749</v>
       </c>
       <c r="E141" t="n">
-        <v>17623</v>
+        <v>38698</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3940,10 +3940,10 @@
         <v>11</v>
       </c>
       <c r="D142" t="n">
-        <v>-1.928003062532049</v>
+        <v>19.71535592051266</v>
       </c>
       <c r="E142" t="n">
-        <v>5962</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3957,10 +3957,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="n">
-        <v>17.16013966700184</v>
+        <v>24.82882638943418</v>
       </c>
       <c r="E143" t="n">
-        <v>131</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3974,10 +3974,10 @@
         <v>11</v>
       </c>
       <c r="D144" t="n">
-        <v>26.52981237537621</v>
+        <v>47.32913470503933</v>
       </c>
       <c r="E144" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3991,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>20.52772673091739</v>
+        <v>19.28667368554176</v>
       </c>
       <c r="E145" t="n">
-        <v>51</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4008,10 +4008,10 @@
         <v>11</v>
       </c>
       <c r="D146" t="n">
-        <v>25.33983813887079</v>
+        <v>24.02281942904691</v>
       </c>
       <c r="E146" t="n">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4025,10 +4025,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>21.1718869922135</v>
+        <v>23.96470778750336</v>
       </c>
       <c r="E147" t="n">
-        <v>41</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4042,10 +4042,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>-2.094989131106079</v>
+        <v>5.497285881900822</v>
       </c>
       <c r="E148" t="n">
-        <v>6153</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4059,10 +4059,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>-2.094989131106079</v>
+        <v>5.497285881900822</v>
       </c>
       <c r="E149" t="n">
-        <v>6152</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4076,10 +4076,10 @@
         <v>11</v>
       </c>
       <c r="D150" t="n">
-        <v>7.779548972864855</v>
+        <v>32.48013407924385</v>
       </c>
       <c r="E150" t="n">
-        <v>1073</v>
+        <v>51</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4093,10 +4093,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>22.9386830869987</v>
+        <v>6.755201626856376</v>
       </c>
       <c r="E151" t="n">
-        <v>29</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4110,10 +4110,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>6.689124785395567</v>
+        <v>25.44331922980733</v>
       </c>
       <c r="E152" t="n">
-        <v>1297</v>
+        <v>141</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4127,10 +4127,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>-9.222475168583649</v>
+        <v>-4.628272045015045</v>
       </c>
       <c r="E153" t="n">
-        <v>30971</v>
+        <v>11236</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4144,10 +4144,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>13.52770187585496</v>
+        <v>37.75770036601039</v>
       </c>
       <c r="E154" t="n">
-        <v>302</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4161,10 +4161,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>0.6241680823288043</v>
+        <v>26.50749822135642</v>
       </c>
       <c r="E155" t="n">
-        <v>3689</v>
+        <v>122</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4178,10 +4178,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>7.169566429192539</v>
+        <v>31.95313747976731</v>
       </c>
       <c r="E156" t="n">
-        <v>1189</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4195,10 +4195,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>0.5225570564889814</v>
+        <v>25.5594841679105</v>
       </c>
       <c r="E157" t="n">
-        <v>3751</v>
+        <v>139</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4212,10 +4212,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.2346161436684504</v>
+        <v>20.95925578965205</v>
       </c>
       <c r="E158" t="n">
-        <v>4320</v>
+        <v>241</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4229,10 +4229,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>-2.592627205952507</v>
+        <v>29.83722282877911</v>
       </c>
       <c r="E159" t="n">
-        <v>6828</v>
+        <v>76</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4246,10 +4246,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>2.376142320658627</v>
+        <v>36.8467139814931</v>
       </c>
       <c r="E160" t="n">
-        <v>2704</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4263,10 +4263,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>-11.6072639669754</v>
+        <v>21.46604644362718</v>
       </c>
       <c r="E161" t="n">
-        <v>52446</v>
+        <v>231</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4280,10 +4280,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>-13.34599332832289</v>
+        <v>13.20221168606596</v>
       </c>
       <c r="E162" t="n">
-        <v>74710</v>
+        <v>642</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4297,10 +4297,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>-8.961295064874214</v>
+        <v>20.28946425122242</v>
       </c>
       <c r="E163" t="n">
-        <v>29155</v>
+        <v>262</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4314,10 +4314,10 @@
         <v>11</v>
       </c>
       <c r="D164" t="n">
-        <v>23.59008857053353</v>
+        <v>54.86231850295103</v>
       </c>
       <c r="E164" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4331,10 +4331,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>14.12565870343402</v>
+        <v>18.27456408157072</v>
       </c>
       <c r="E165" t="n">
-        <v>269</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4348,10 +4348,10 @@
         <v>11</v>
       </c>
       <c r="D166" t="n">
-        <v>12.7450796208802</v>
+        <v>39.20633312760274</v>
       </c>
       <c r="E166" t="n">
-        <v>358</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4365,10 +4365,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>5.905947196407087</v>
+        <v>32.054651041335</v>
       </c>
       <c r="E167" t="n">
-        <v>1500</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4382,10 +4382,10 @@
         <v>11</v>
       </c>
       <c r="D168" t="n">
-        <v>10.05017540674131</v>
+        <v>39.90566324257338</v>
       </c>
       <c r="E168" t="n">
-        <v>673</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4399,10 +4399,10 @@
         <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>1.649665692503891</v>
+        <v>37.89249629312724</v>
       </c>
       <c r="E169" t="n">
-        <v>3076</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4416,10 +4416,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>-1.5259808030453</v>
+        <v>22.12970842511989</v>
       </c>
       <c r="E170" t="n">
-        <v>5517</v>
+        <v>213</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4433,10 +4433,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>10.08318755622657</v>
+        <v>41.72828754234462</v>
       </c>
       <c r="E171" t="n">
-        <v>667</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4450,10 +4450,10 @@
         <v>11</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.139874364340411</v>
+        <v>34.06540146453127</v>
       </c>
       <c r="E172" t="n">
-        <v>4249</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4467,10 +4467,10 @@
         <v>11</v>
       </c>
       <c r="D173" t="n">
-        <v>-10.51579965485205</v>
+        <v>21.75446734063203</v>
       </c>
       <c r="E173" t="n">
-        <v>41410</v>
+        <v>221</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4484,10 +4484,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>9.84414371889973</v>
+        <v>10.47649366287414</v>
       </c>
       <c r="E174" t="n">
-        <v>2236</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4501,10 +4501,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>36.6570402233018</v>
+        <v>51.05255056943513</v>
       </c>
       <c r="E175" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4518,10 +4518,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>39.59332240830152</v>
+        <v>48.32700130294829</v>
       </c>
       <c r="E176" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4535,10 +4535,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>23.85539790199111</v>
+        <v>35.15430464618481</v>
       </c>
       <c r="E177" t="n">
-        <v>192</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4552,10 +4552,10 @@
         <v>11</v>
       </c>
       <c r="D178" t="n">
-        <v>40.91169747614334</v>
+        <v>39.56018504310269</v>
       </c>
       <c r="E178" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4569,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>-7.57062750510179</v>
+        <v>-11.71793818613061</v>
       </c>
       <c r="E179" t="n">
-        <v>30295</v>
+        <v>53554</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4586,10 +4586,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>23.64084316887804</v>
+        <v>15.21221954902634</v>
       </c>
       <c r="E180" t="n">
-        <v>205</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4603,10 +4603,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>31.21567219124917</v>
+        <v>36.75783658126434</v>
       </c>
       <c r="E181" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4620,10 +4620,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>21.18840001552602</v>
+        <v>19.2131713631361</v>
       </c>
       <c r="E182" t="n">
-        <v>341</v>
+        <v>779</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4637,10 +4637,10 @@
         <v>11</v>
       </c>
       <c r="D183" t="n">
-        <v>13.6789178606461</v>
+        <v>16.08733108328107</v>
       </c>
       <c r="E183" t="n">
-        <v>1266</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4654,10 +4654,10 @@
         <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>21.06109601914256</v>
+        <v>18.38426745413438</v>
       </c>
       <c r="E184" t="n">
-        <v>351</v>
+        <v>870</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4671,10 +4671,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>13.1550722017658</v>
+        <v>11.54981181198514</v>
       </c>
       <c r="E185" t="n">
-        <v>1362</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4688,10 +4688,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>14.19192715276007</v>
+        <v>9.387957353183008</v>
       </c>
       <c r="E186" t="n">
-        <v>1182</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4705,10 +4705,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>16.12994787182659</v>
+        <v>30.27178355827289</v>
       </c>
       <c r="E187" t="n">
-        <v>871</v>
+        <v>144</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4722,10 +4722,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>9.902847292929877</v>
+        <v>-1.450999076041107</v>
       </c>
       <c r="E188" t="n">
-        <v>2219</v>
+        <v>10456</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4739,10 +4739,10 @@
         <v>11</v>
       </c>
       <c r="D189" t="n">
-        <v>25.31103771002385</v>
+        <v>27.43036904205059</v>
       </c>
       <c r="E189" t="n">
-        <v>139</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4756,10 +4756,10 @@
         <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>6.727441683346221</v>
+        <v>12.26916215921114</v>
       </c>
       <c r="E190" t="n">
-        <v>3531</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4773,10 +4773,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>12.14811380247436</v>
+        <v>7.029845081931125</v>
       </c>
       <c r="E191" t="n">
-        <v>1572</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4790,10 +4790,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>2.805308330730195</v>
+        <v>1.719411273279352</v>
       </c>
       <c r="E192" t="n">
-        <v>6063</v>
+        <v>6727</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4807,10 +4807,10 @@
         <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>12.55632696743733</v>
+        <v>11.69512444337664</v>
       </c>
       <c r="E193" t="n">
-        <v>1479</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4824,10 +4824,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>8.356395099448605</v>
+        <v>1.693861235137849</v>
       </c>
       <c r="E194" t="n">
-        <v>2781</v>
+        <v>6755</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4841,10 +4841,10 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>34.65427796146616</v>
+        <v>54.38207809555081</v>
       </c>
       <c r="E195" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4858,10 +4858,10 @@
         <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>40.97819543481817</v>
+        <v>40.51873703130211</v>
       </c>
       <c r="E196" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4875,10 +4875,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>40.97819543481817</v>
+        <v>40.51873703130211</v>
       </c>
       <c r="E197" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4892,10 +4892,10 @@
         <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>26.42732651572186</v>
+        <v>30.83921143768392</v>
       </c>
       <c r="E198" t="n">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4909,10 +4909,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>26.36481277441808</v>
+        <v>34.21112168405791</v>
       </c>
       <c r="E199" t="n">
-        <v>109</v>
+        <v>62</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4926,10 +4926,10 @@
         <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>30.28562008732577</v>
+        <v>44.26810819227509</v>
       </c>
       <c r="E200" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4943,10 +4943,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>10.08553947324868</v>
+        <v>5.623137321256802</v>
       </c>
       <c r="E201" t="n">
-        <v>2168</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4960,10 +4960,10 @@
         <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>18.98750814350331</v>
+        <v>20.77877993405545</v>
       </c>
       <c r="E202" t="n">
-        <v>520</v>
+        <v>635</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4977,10 +4977,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>22.41223684218119</v>
+        <v>29.02093219800553</v>
       </c>
       <c r="E203" t="n">
-        <v>144</v>
+        <v>25</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4994,10 +4994,10 @@
         <v>11</v>
       </c>
       <c r="D204" t="n">
-        <v>18.08063195622838</v>
+        <v>23.00644007117847</v>
       </c>
       <c r="E204" t="n">
-        <v>680</v>
+        <v>192</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5011,10 +5011,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>13.46525757912741</v>
+        <v>15.79019952086862</v>
       </c>
       <c r="E205" t="n">
-        <v>2107</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5028,10 +5028,10 @@
         <v>11</v>
       </c>
       <c r="D206" t="n">
-        <v>25.11834350530134</v>
+        <v>24.69385932155896</v>
       </c>
       <c r="E206" t="n">
-        <v>53</v>
+        <v>122</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5045,10 +5045,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>27.2838337429408</v>
+        <v>32.78991591230259</v>
       </c>
       <c r="E207" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5062,10 +5062,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>-1.439218566476473</v>
+        <v>-3.179833322933369</v>
       </c>
       <c r="E208" t="n">
-        <v>26713</v>
+        <v>36190</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5079,10 +5079,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>19.63998647834709</v>
+        <v>23.81662180422123</v>
       </c>
       <c r="E209" t="n">
-        <v>384</v>
+        <v>158</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5096,10 +5096,10 @@
         <v>11</v>
       </c>
       <c r="D210" t="n">
-        <v>24.90033899035508</v>
+        <v>23.46370045774696</v>
       </c>
       <c r="E210" t="n">
-        <v>58</v>
+        <v>172</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5113,10 +5113,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>-3.825846126338497</v>
+        <v>4.539650869060324</v>
       </c>
       <c r="E211" t="n">
-        <v>43856</v>
+        <v>9234</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5130,10 +5130,10 @@
         <v>11</v>
       </c>
       <c r="D212" t="n">
-        <v>22.2366381026427</v>
+        <v>24.71426129360388</v>
       </c>
       <c r="E212" t="n">
-        <v>157</v>
+        <v>120</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5147,10 +5147,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>26.27176594742592</v>
+        <v>14.55502278193761</v>
       </c>
       <c r="E213" t="n">
-        <v>36</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5164,10 +5164,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>23.77122842406416</v>
+        <v>17.02813084143672</v>
       </c>
       <c r="E214" t="n">
-        <v>91</v>
+        <v>893</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5181,10 +5181,10 @@
         <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>23.08779182320921</v>
+        <v>29.3670031036205</v>
       </c>
       <c r="E215" t="n">
-        <v>119</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5198,10 +5198,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>28.94489300788775</v>
+        <v>31.18065246887939</v>
       </c>
       <c r="E216" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5215,10 +5215,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>26.44907181222734</v>
+        <v>28.89155387184691</v>
       </c>
       <c r="E217" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5232,7 +5232,7 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>31.65709175031222</v>
+        <v>37.53818091912819</v>
       </c>
       <c r="E218" t="n">
         <v>2</v>
@@ -5249,10 +5249,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>23.35909737798356</v>
+        <v>25.00664015826241</v>
       </c>
       <c r="E219" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5266,10 +5266,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>28.04894019882173</v>
+        <v>25.55766547178861</v>
       </c>
       <c r="E220" t="n">
-        <v>10</v>
+        <v>87</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5283,10 +5283,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>21.17432806921784</v>
+        <v>24.94683204338164</v>
       </c>
       <c r="E221" t="n">
-        <v>231</v>
+        <v>111</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5300,10 +5300,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>17.40676627335894</v>
+        <v>23.2845831177201</v>
       </c>
       <c r="E222" t="n">
-        <v>828</v>
+        <v>180</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5317,10 +5317,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>18.33847781942888</v>
+        <v>19.37315819231935</v>
       </c>
       <c r="E223" t="n">
-        <v>637</v>
+        <v>533</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5334,10 +5334,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>-2.78816860457148</v>
+        <v>-2.056514179625816</v>
       </c>
       <c r="E224" t="n">
-        <v>35096</v>
+        <v>28348</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5351,10 +5351,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>21.93838748382515</v>
+        <v>24.51218031194063</v>
       </c>
       <c r="E225" t="n">
-        <v>173</v>
+        <v>127</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5368,10 +5368,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>12.98803828778938</v>
+        <v>12.82089620887823</v>
       </c>
       <c r="E226" t="n">
-        <v>2324</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5385,10 +5385,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>17.57419919308014</v>
+        <v>25.24345698898567</v>
       </c>
       <c r="E227" t="n">
-        <v>789</v>
+        <v>98</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5402,10 +5402,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>23.75552906981178</v>
+        <v>27.15344061319681</v>
       </c>
       <c r="E228" t="n">
-        <v>93</v>
+        <v>48</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5419,10 +5419,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>21.88167476116366</v>
+        <v>27.69396908482241</v>
       </c>
       <c r="E229" t="n">
-        <v>178</v>
+        <v>38</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5436,7 +5436,7 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>31.95243559129368</v>
+        <v>41.05746693706733</v>
       </c>
       <c r="E230" t="n">
         <v>1</v>
@@ -5453,10 +5453,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>27.51654738211101</v>
+        <v>33.15880920557986</v>
       </c>
       <c r="E231" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5470,10 +5470,10 @@
         <v>11</v>
       </c>
       <c r="D232" t="n">
-        <v>23.21464516582018</v>
+        <v>30.02983816383446</v>
       </c>
       <c r="E232" t="n">
-        <v>115</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5487,10 +5487,10 @@
         <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>21.16178783849942</v>
+        <v>25.43797561278435</v>
       </c>
       <c r="E233" t="n">
-        <v>233</v>
+        <v>90</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5504,10 +5504,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>15.95196891730255</v>
+        <v>28.65671179885531</v>
       </c>
       <c r="E234" t="n">
-        <v>1179</v>
+        <v>29</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5521,10 +5521,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>25.65126535664944</v>
+        <v>27.85405895262755</v>
       </c>
       <c r="E235" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5538,10 +5538,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>-3.439152798732271</v>
+        <v>6.995447224463909</v>
       </c>
       <c r="E236" t="n">
-        <v>40350</v>
+        <v>6292</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5555,10 +5555,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>-1.74683872310967</v>
+        <v>2.99476476319516</v>
       </c>
       <c r="E237" t="n">
-        <v>28291</v>
+        <v>11908</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5572,10 +5572,10 @@
         <v>11</v>
       </c>
       <c r="D238" t="n">
-        <v>20.25830879732959</v>
+        <v>26.2723753287155</v>
       </c>
       <c r="E238" t="n">
-        <v>300</v>
+        <v>68</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5589,10 +5589,10 @@
         <v>11</v>
       </c>
       <c r="D239" t="n">
-        <v>24.35738534081819</v>
+        <v>30.38145951087223</v>
       </c>
       <c r="E239" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5606,10 +5606,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>14.98950398985239</v>
+        <v>13.56016591588346</v>
       </c>
       <c r="E240" t="n">
-        <v>1477</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5623,10 +5623,10 @@
         <v>11</v>
       </c>
       <c r="D241" t="n">
-        <v>21.45027520138652</v>
+        <v>25.05014647051082</v>
       </c>
       <c r="E241" t="n">
-        <v>205</v>
+        <v>108</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5640,10 +5640,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>5.093488566843629</v>
+        <v>3.385319742982489</v>
       </c>
       <c r="E242" t="n">
-        <v>9145</v>
+        <v>11221</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5657,10 +5657,10 @@
         <v>11</v>
       </c>
       <c r="D243" t="n">
-        <v>28.76642729298171</v>
+        <v>24.02620815287209</v>
       </c>
       <c r="E243" t="n">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5674,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>-6.464463086680581</v>
+        <v>8.532873392419809</v>
       </c>
       <c r="E244" t="n">
-        <v>78161</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5691,10 +5691,10 @@
         <v>11</v>
       </c>
       <c r="D245" t="n">
-        <v>27.90730609402405</v>
+        <v>34.81459279924996</v>
       </c>
       <c r="E245" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5708,10 +5708,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>20.40840760174184</v>
+        <v>18.23437340194472</v>
       </c>
       <c r="E246" t="n">
-        <v>290</v>
+        <v>674</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5725,10 +5725,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>10.82123732688892</v>
+        <v>15.35225261261485</v>
       </c>
       <c r="E247" t="n">
-        <v>3626</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5742,10 +5742,10 @@
         <v>11</v>
       </c>
       <c r="D248" t="n">
-        <v>17.1339272137667</v>
+        <v>17.28656478455061</v>
       </c>
       <c r="E248" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5759,10 +5759,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>20.9512227372459</v>
+        <v>7.385840217296495</v>
       </c>
       <c r="E249" t="n">
-        <v>5</v>
+        <v>346</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5776,10 +5776,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>13.0428305337772</v>
+        <v>0.7297685402082523</v>
       </c>
       <c r="E250" t="n">
-        <v>69</v>
+        <v>15210</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5793,10 +5793,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>15.55896561497199</v>
+        <v>3.764562098385519</v>
       </c>
       <c r="E251" t="n">
-        <v>25</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5810,10 +5810,10 @@
         <v>11</v>
       </c>
       <c r="D252" t="n">
-        <v>17.05079954614968</v>
+        <v>18.40144857897973</v>
       </c>
       <c r="E252" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5827,10 +5827,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>24.67177338747542</v>
+        <v>4.419756162320156</v>
       </c>
       <c r="E253" t="n">
-        <v>4</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5844,10 +5844,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>18.50615871577968</v>
+        <v>2.467185765007399</v>
       </c>
       <c r="E254" t="n">
-        <v>10</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5861,10 +5861,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>20.13185659092276</v>
+        <v>17.8912651974017</v>
       </c>
       <c r="E255" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5878,10 +5878,10 @@
         <v>11</v>
       </c>
       <c r="D256" t="n">
-        <v>13.64075395388811</v>
+        <v>12.89163424644158</v>
       </c>
       <c r="E256" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5895,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>13.71053440615827</v>
+        <v>0.8222962383163894</v>
       </c>
       <c r="E257" t="n">
-        <v>58</v>
+        <v>14382</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5912,10 +5912,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>18.18523195604978</v>
+        <v>15.78436483327915</v>
       </c>
       <c r="E258" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5929,10 +5929,10 @@
         <v>11</v>
       </c>
       <c r="D259" t="n">
-        <v>15.09146656074128</v>
+        <v>11.21934123223223</v>
       </c>
       <c r="E259" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5946,10 +5946,10 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>26.44443775048891</v>
+        <v>4.009125937499733</v>
       </c>
       <c r="E260" t="n">
-        <v>3</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5963,10 +5963,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>17.13317133935038</v>
+        <v>1.400370202198283</v>
       </c>
       <c r="E261" t="n">
-        <v>17</v>
+        <v>9916</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5980,10 +5980,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>16.81242613618002</v>
+        <v>12.01479910315162</v>
       </c>
       <c r="E262" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5997,10 +5997,10 @@
         <v>11</v>
       </c>
       <c r="D263" t="n">
-        <v>17.59989321892393</v>
+        <v>22.60625828462183</v>
       </c>
       <c r="E263" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6014,10 +6014,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>29.40402949998001</v>
+        <v>9.293920916375637</v>
       </c>
       <c r="E264" t="n">
-        <v>1</v>
+        <v>156</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6031,10 +6031,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>11.86994390475093</v>
+        <v>13.65689304689033</v>
       </c>
       <c r="E265" t="n">
-        <v>87</v>
+        <v>19</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6048,10 +6048,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>13.91609181564295</v>
+        <v>13.01385821868667</v>
       </c>
       <c r="E266" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6065,10 +6065,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>9.653666513175549</v>
+        <v>13.10360455692479</v>
       </c>
       <c r="E267" t="n">
-        <v>171</v>
+        <v>24</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6082,10 +6082,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>26.79220823447238</v>
+        <v>7.130974772220589</v>
       </c>
       <c r="E268" t="n">
-        <v>2</v>
+        <v>391</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6099,10 +6099,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>16.62744520015618</v>
+        <v>-0.06661068201846732</v>
       </c>
       <c r="E269" t="n">
-        <v>22</v>
+        <v>24741</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6116,10 +6116,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>17.94594564604851</v>
+        <v>18.8266736159892</v>
       </c>
       <c r="E270" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6133,10 +6133,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>13.8593236594268</v>
+        <v>13.08089815618585</v>
       </c>
       <c r="E271" t="n">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6150,10 +6150,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>14.78593999084753</v>
+        <v>-0.4471979771047261</v>
       </c>
       <c r="E272" t="n">
-        <v>37</v>
+        <v>30912</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6167,10 +6167,10 @@
         <v>11</v>
       </c>
       <c r="D273" t="n">
-        <v>14.85121105407281</v>
+        <v>16.59005150364694</v>
       </c>
       <c r="E273" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6184,10 +6184,10 @@
         <v>11</v>
       </c>
       <c r="D274" t="n">
-        <v>3.758907459695815</v>
+        <v>6.814218849465699</v>
       </c>
       <c r="E274" t="n">
-        <v>728</v>
+        <v>163</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6201,10 +6201,10 @@
         <v>11</v>
       </c>
       <c r="D275" t="n">
-        <v>0.3955180213141718</v>
+        <v>3.015436408839787</v>
       </c>
       <c r="E275" t="n">
-        <v>4411</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6218,10 +6218,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>10.22730949090814</v>
+        <v>7.65200674090229</v>
       </c>
       <c r="E276" t="n">
-        <v>64</v>
+        <v>107</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6235,10 +6235,10 @@
         <v>11</v>
       </c>
       <c r="D277" t="n">
-        <v>3.606992778221329</v>
+        <v>4.856925595556477</v>
       </c>
       <c r="E277" t="n">
-        <v>779</v>
+        <v>445</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6252,10 +6252,10 @@
         <v>11</v>
       </c>
       <c r="D278" t="n">
-        <v>7.621793914079221</v>
+        <v>4.521447732977667</v>
       </c>
       <c r="E278" t="n">
-        <v>185</v>
+        <v>527</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6269,10 +6269,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>7.578400936875601</v>
+        <v>4.340120903635575</v>
       </c>
       <c r="E279" t="n">
-        <v>189</v>
+        <v>585</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6286,10 +6286,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>7.062028871458708</v>
+        <v>5.495069653975501</v>
       </c>
       <c r="E280" t="n">
-        <v>237</v>
+        <v>328</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6303,10 +6303,10 @@
         <v>11</v>
       </c>
       <c r="D281" t="n">
-        <v>11.27754790151993</v>
+        <v>12.68097003236266</v>
       </c>
       <c r="E281" t="n">
-        <v>42</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6320,10 +6320,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>-3.862235884649432</v>
+        <v>1.044726306334715</v>
       </c>
       <c r="E282" t="n">
-        <v>68847</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -6337,10 +6337,10 @@
         <v>11</v>
       </c>
       <c r="D283" t="n">
-        <v>2.976843897489308</v>
+        <v>7.12462104845686</v>
       </c>
       <c r="E283" t="n">
-        <v>1076</v>
+        <v>147</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -6354,10 +6354,10 @@
         <v>11</v>
       </c>
       <c r="D284" t="n">
-        <v>12.20843566147521</v>
+        <v>11.52731810924858</v>
       </c>
       <c r="E284" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -6371,10 +6371,10 @@
         <v>11</v>
       </c>
       <c r="D285" t="n">
-        <v>14.98252275465163</v>
+        <v>11.29873483320204</v>
       </c>
       <c r="E285" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -6388,10 +6388,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>11.95167995693436</v>
+        <v>7.340427448653737</v>
       </c>
       <c r="E286" t="n">
-        <v>36</v>
+        <v>131</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -6405,10 +6405,10 @@
         <v>11</v>
       </c>
       <c r="D287" t="n">
-        <v>12.77425673175004</v>
+        <v>11.04973420007868</v>
       </c>
       <c r="E287" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -6422,10 +6422,10 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>16.03527775846585</v>
+        <v>14.13166628704231</v>
       </c>
       <c r="E288" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6439,10 +6439,10 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>16.03527775846585</v>
+        <v>14.13166628704231</v>
       </c>
       <c r="E289" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -6456,10 +6456,10 @@
         <v>11</v>
       </c>
       <c r="D290" t="n">
-        <v>9.128927928247709</v>
+        <v>11.37166434079282</v>
       </c>
       <c r="E290" t="n">
-        <v>110</v>
+        <v>17</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>-1.06163473210913</v>
+        <v>7.80594587373185</v>
       </c>
       <c r="E291" t="n">
-        <v>11540</v>
+        <v>101</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -6490,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.9331525350632521</v>
+        <v>6.045315660932981</v>
       </c>
       <c r="E292" t="n">
-        <v>10598</v>
+        <v>233</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -6507,10 +6507,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>4.837974816779214</v>
+        <v>10.27289156603409</v>
       </c>
       <c r="E293" t="n">
-        <v>465</v>
+        <v>26</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -6524,10 +6524,10 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>5.954887831104287</v>
+        <v>12.0701666318397</v>
       </c>
       <c r="E294" t="n">
-        <v>333</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -6541,10 +6541,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>-3.690578707960988</v>
+        <v>3.5374755080009</v>
       </c>
       <c r="E295" t="n">
-        <v>62396</v>
+        <v>943</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -6558,10 +6558,10 @@
         <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>9.218908224735419</v>
+        <v>9.274423150504198</v>
       </c>
       <c r="E296" t="n">
-        <v>108</v>
+        <v>47</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -6575,10 +6575,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>5.85261467058384</v>
+        <v>5.944709702613612</v>
       </c>
       <c r="E297" t="n">
-        <v>345</v>
+        <v>248</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -6592,10 +6592,10 @@
         <v>11</v>
       </c>
       <c r="D298" t="n">
-        <v>10.74688232108156</v>
+        <v>10.2137543983777</v>
       </c>
       <c r="E298" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -6609,10 +6609,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>9.393690093638387</v>
+        <v>8.888658121388737</v>
       </c>
       <c r="E299" t="n">
-        <v>101</v>
+        <v>57</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -6626,10 +6626,10 @@
         <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>10.58404418155891</v>
+        <v>8.078998713442864</v>
       </c>
       <c r="E300" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -6643,10 +6643,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>6.366598783589074</v>
+        <v>1.433111559394537</v>
       </c>
       <c r="E301" t="n">
-        <v>288</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6660,10 +6660,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>6.366598783589074</v>
+        <v>1.433111559394537</v>
       </c>
       <c r="E302" t="n">
-        <v>287</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -6677,10 +6677,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>-1.032906108059979</v>
+        <v>4.154533619446906</v>
       </c>
       <c r="E303" t="n">
-        <v>11314</v>
+        <v>673</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -6694,10 +6694,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>5.691579707592002</v>
+        <v>12.83116584101777</v>
       </c>
       <c r="E304" t="n">
-        <v>794</v>
+        <v>53</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -6711,7 +6711,7 @@
         <v>11</v>
       </c>
       <c r="D305" t="n">
-        <v>17.26814836891756</v>
+        <v>18.28094058252569</v>
       </c>
       <c r="E305" t="n">
         <v>5</v>
@@ -6728,10 +6728,10 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>11.60212245759034</v>
+        <v>15.0594307986953</v>
       </c>
       <c r="E306" t="n">
-        <v>68</v>
+        <v>25</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -6745,10 +6745,10 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>9.278381872431922</v>
+        <v>9.171208428943029</v>
       </c>
       <c r="E307" t="n">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -6762,10 +6762,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>-3.938313705998306</v>
+        <v>-1.24253640545064</v>
       </c>
       <c r="E308" t="n">
-        <v>36415</v>
+        <v>13772</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -6779,10 +6779,10 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>-3.200751330939688</v>
+        <v>0.3195024585935879</v>
       </c>
       <c r="E309" t="n">
-        <v>27446</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -6796,10 +6796,10 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>12.88766346886899</v>
+        <v>16.18571543473588</v>
       </c>
       <c r="E310" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -6813,10 +6813,10 @@
         <v>11</v>
       </c>
       <c r="D311" t="n">
-        <v>8.239740737340423</v>
+        <v>8.909180789390422</v>
       </c>
       <c r="E311" t="n">
-        <v>318</v>
+        <v>231</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -6830,10 +6830,10 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>12.9402649385252</v>
+        <v>17.13598077910817</v>
       </c>
       <c r="E312" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -6847,10 +6847,10 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>13.24170498721273</v>
+        <v>15.97761286627238</v>
       </c>
       <c r="E313" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -6864,10 +6864,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>-8.59488590671276</v>
+        <v>-7.261752208614086</v>
       </c>
       <c r="E314" t="n">
-        <v>158047</v>
+        <v>123996</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -6881,10 +6881,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>2.27936437078414</v>
+        <v>6.485085013507714</v>
       </c>
       <c r="E315" t="n">
-        <v>2842</v>
+        <v>622</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -6898,10 +6898,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>-5.980424765504914</v>
+        <v>-1.272942932351848</v>
       </c>
       <c r="E316" t="n">
-        <v>76032</v>
+        <v>13978</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -6915,10 +6915,10 @@
         <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>15.27654104672397</v>
+        <v>18.33028816858468</v>
       </c>
       <c r="E317" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -6932,10 +6932,10 @@
         <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>11.15538079496249</v>
+        <v>15.39456500097699</v>
       </c>
       <c r="E318" t="n">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -6949,10 +6949,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>10.34137179569979</v>
+        <v>5.071500779992352</v>
       </c>
       <c r="E319" t="n">
-        <v>132</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -6966,10 +6966,10 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>17.27446417596837</v>
+        <v>22.51794806018584</v>
       </c>
       <c r="E320" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -6983,10 +6983,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>13.48556207999943</v>
+        <v>12.5575788548355</v>
       </c>
       <c r="E321" t="n">
-        <v>34</v>
+        <v>59</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7000,10 +7000,10 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>8.941752249337839</v>
+        <v>7.184558276756469</v>
       </c>
       <c r="E322" t="n">
-        <v>244</v>
+        <v>447</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7017,10 +7017,10 @@
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>17.01777810114056</v>
+        <v>16.18859914146301</v>
       </c>
       <c r="E323" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7034,10 +7034,10 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>13.85924986736974</v>
+        <v>12.31444293153324</v>
       </c>
       <c r="E324" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7051,10 +7051,10 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>18.01314709439432</v>
+        <v>19.94792052293252</v>
       </c>
       <c r="E325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7068,10 +7068,10 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>12.66304937156713</v>
+        <v>12.76590790836427</v>
       </c>
       <c r="E326" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7085,10 +7085,10 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>18.50111522680382</v>
+        <v>17.34967725989659</v>
       </c>
       <c r="E327" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7102,10 +7102,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>8.924722715909091</v>
+        <v>12.30354778588674</v>
       </c>
       <c r="E328" t="n">
-        <v>248</v>
+        <v>68</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7119,10 +7119,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>5.784040545054001</v>
+        <v>8.475714338413635</v>
       </c>
       <c r="E329" t="n">
-        <v>769</v>
+        <v>277</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7136,10 +7136,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>-4.493011616925816</v>
+        <v>-4.221706745903504</v>
       </c>
       <c r="E330" t="n">
-        <v>44844</v>
+        <v>47077</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7153,10 +7153,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>9.865489131384347</v>
+        <v>7.073291746119995</v>
       </c>
       <c r="E331" t="n">
-        <v>161</v>
+        <v>475</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7170,10 +7170,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>8.184931813356418</v>
+        <v>13.41782003256613</v>
       </c>
       <c r="E332" t="n">
-        <v>326</v>
+        <v>42</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7187,10 +7187,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>6.451089502027706</v>
+        <v>12.90570170483661</v>
       </c>
       <c r="E333" t="n">
-        <v>600</v>
+        <v>51</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7204,10 +7204,10 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>11.06116877215662</v>
+        <v>10.18058387041002</v>
       </c>
       <c r="E334" t="n">
-        <v>97</v>
+        <v>141</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7221,10 +7221,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>-1.614752079359778</v>
+        <v>-0.21865680046775</v>
       </c>
       <c r="E335" t="n">
-        <v>14430</v>
+        <v>8901</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7238,10 +7238,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>15.0264068629706</v>
+        <v>14.26711270979567</v>
       </c>
       <c r="E336" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7255,10 +7255,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>-5.11789443831556</v>
+        <v>-3.578649680021922</v>
       </c>
       <c r="E337" t="n">
-        <v>56478</v>
+        <v>36873</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7272,10 +7272,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>-0.6323895537206372</v>
+        <v>-2.249486193397704</v>
       </c>
       <c r="E338" t="n">
-        <v>9468</v>
+        <v>21109</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7289,10 +7289,10 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>0.7158862413409892</v>
+        <v>0.5668439718078666</v>
       </c>
       <c r="E339" t="n">
-        <v>5487</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7306,10 +7306,10 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>10.00769215682175</v>
+        <v>13.46940048009798</v>
       </c>
       <c r="E340" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -7323,10 +7323,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>-2.85832617919173</v>
+        <v>-4.305945827246665</v>
       </c>
       <c r="E341" t="n">
-        <v>23858</v>
+        <v>48542</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -7340,10 +7340,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>-3.411646430780772</v>
+        <v>-1.213589813414057</v>
       </c>
       <c r="E342" t="n">
-        <v>29838</v>
+        <v>13609</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -7357,10 +7357,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>-7.223209634099991</v>
+        <v>-7.293092117933547</v>
       </c>
       <c r="E343" t="n">
-        <v>111759</v>
+        <v>125051</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -7374,10 +7374,10 @@
         <v>11</v>
       </c>
       <c r="D344" t="n">
-        <v>2.776834952036351</v>
+        <v>7.065565916448152</v>
       </c>
       <c r="E344" t="n">
-        <v>3656</v>
+        <v>243</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -7391,10 +7391,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>4.532774506526904</v>
+        <v>4.61487365161083</v>
       </c>
       <c r="E345" t="n">
-        <v>1122</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -7408,10 +7408,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>2.174650029107186</v>
+        <v>7.350199583472337</v>
       </c>
       <c r="E346" t="n">
-        <v>5267</v>
+        <v>199</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -7425,10 +7425,10 @@
         <v>11</v>
       </c>
       <c r="D347" t="n">
-        <v>6.079632591582584</v>
+        <v>8.506268298276453</v>
       </c>
       <c r="E347" t="n">
-        <v>357</v>
+        <v>73</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -7442,10 +7442,10 @@
         <v>11</v>
       </c>
       <c r="D348" t="n">
-        <v>6.024568290573642</v>
+        <v>8.596794766863502</v>
       </c>
       <c r="E348" t="n">
-        <v>372</v>
+        <v>67</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -7459,10 +7459,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>1.461693882734126</v>
+        <v>3.733950801886353</v>
       </c>
       <c r="E349" t="n">
-        <v>8192</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -7476,10 +7476,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>-0.6455097024490497</v>
+        <v>4.155339813214683</v>
       </c>
       <c r="E350" t="n">
-        <v>27647</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -7493,10 +7493,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>1.009178804523886</v>
+        <v>6.141137677464869</v>
       </c>
       <c r="E351" t="n">
-        <v>10740</v>
+        <v>550</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -7510,10 +7510,10 @@
         <v>11</v>
       </c>
       <c r="D352" t="n">
-        <v>16.71944602100845</v>
+        <v>2.486708444937033</v>
       </c>
       <c r="E352" t="n">
-        <v>6</v>
+        <v>7099</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -7527,10 +7527,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>1.13877587544869</v>
+        <v>5.706169425308184</v>
       </c>
       <c r="E353" t="n">
-        <v>9950</v>
+        <v>765</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -7544,10 +7544,10 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>18.20439126732177</v>
+        <v>2.269017155782921</v>
       </c>
       <c r="E354" t="n">
-        <v>2</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -7561,10 +7561,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>16.45958827391173</v>
+        <v>4.095760350888398</v>
       </c>
       <c r="E355" t="n">
-        <v>7</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -7578,10 +7578,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>13.72675801200463</v>
+        <v>0.4843647938887292</v>
       </c>
       <c r="E356" t="n">
-        <v>19</v>
+        <v>23076</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -7595,10 +7595,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>0.9841578419880186</v>
+        <v>4.742266936810381</v>
       </c>
       <c r="E357" t="n">
-        <v>10893</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -7612,10 +7612,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>2.042354374736773</v>
+        <v>6.779793306723285</v>
       </c>
       <c r="E358" t="n">
-        <v>5699</v>
+        <v>315</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -7629,10 +7629,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>8.482692347357522</v>
+        <v>13.14578543131558</v>
       </c>
       <c r="E359" t="n">
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -7646,10 +7646,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>16.84875349043904</v>
+        <v>1.538090173854879</v>
       </c>
       <c r="E360" t="n">
-        <v>5</v>
+        <v>12624</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -7663,10 +7663,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>1.431469737403326</v>
+        <v>5.662401085985083</v>
       </c>
       <c r="E361" t="n">
-        <v>8339</v>
+        <v>801</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -7680,10 +7680,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>3.299506350785135</v>
+        <v>7.40895461598315</v>
       </c>
       <c r="E362" t="n">
-        <v>2562</v>
+        <v>189</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -7697,10 +7697,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>12.61019713224557</v>
+        <v>-6.052405645984196</v>
       </c>
       <c r="E363" t="n">
-        <v>28</v>
+        <v>279899</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -7714,10 +7714,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>0.4473527587442039</v>
+        <v>-0.7855849254818157</v>
       </c>
       <c r="E364" t="n">
-        <v>14943</v>
+        <v>45035</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -7731,10 +7731,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>-0.9750729383973216</v>
+        <v>-0.3202715089391646</v>
       </c>
       <c r="E365" t="n">
-        <v>32819</v>
+        <v>35526</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -7748,10 +7748,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>5.922815146856639</v>
+        <v>7.428546050250532</v>
       </c>
       <c r="E366" t="n">
-        <v>407</v>
+        <v>188</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -7765,10 +7765,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>2.04949118491497</v>
+        <v>6.666333032124324</v>
       </c>
       <c r="E367" t="n">
-        <v>5676</v>
+        <v>364</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -7782,10 +7782,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>-0.7568186382441437</v>
+        <v>4.444855441536774</v>
       </c>
       <c r="E368" t="n">
-        <v>29380</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -7799,10 +7799,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>18.76598717843298</v>
+        <v>5.189667852186004</v>
       </c>
       <c r="E369" t="n">
-        <v>1</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -7816,10 +7816,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>-1.454574377046582</v>
+        <v>3.042483926576521</v>
       </c>
       <c r="E370" t="n">
-        <v>42141</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -7833,10 +7833,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>-2.135497627645328</v>
+        <v>-1.504627618611774</v>
       </c>
       <c r="E371" t="n">
-        <v>58834</v>
+        <v>63124</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -7850,10 +7850,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>17.2426770110256</v>
+        <v>0.4891659968488451</v>
       </c>
       <c r="E372" t="n">
-        <v>3</v>
+        <v>23022</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -7867,10 +7867,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>13.56366570922224</v>
+        <v>-1.165000517971346</v>
       </c>
       <c r="E373" t="n">
-        <v>20</v>
+        <v>54079</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -7884,10 +7884,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>15.25432601087326</v>
+        <v>0.7848987102437563</v>
       </c>
       <c r="E374" t="n">
-        <v>12</v>
+        <v>19456</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -7901,10 +7901,10 @@
         <v>11</v>
       </c>
       <c r="D375" t="n">
-        <v>-3.972873806775071</v>
+        <v>5.337876885362357</v>
       </c>
       <c r="E375" t="n">
-        <v>127666</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -7918,10 +7918,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>4.172035237468057</v>
+        <v>7.841637640428889</v>
       </c>
       <c r="E376" t="n">
-        <v>1454</v>
+        <v>135</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -7935,10 +7935,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>4.041352563489006</v>
+        <v>4.86091825620437</v>
       </c>
       <c r="E377" t="n">
-        <v>1569</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -7952,10 +7952,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>3.559042710972614</v>
+        <v>5.993600582401758</v>
       </c>
       <c r="E378" t="n">
-        <v>2159</v>
+        <v>614</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -7969,10 +7969,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>8.254618666301626</v>
+        <v>12.84067202255786</v>
       </c>
       <c r="E379" t="n">
-        <v>104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -7986,10 +7986,10 @@
         <v>11</v>
       </c>
       <c r="D380" t="n">
-        <v>6.428389201643318</v>
+        <v>7.392301956070909</v>
       </c>
       <c r="E380" t="n">
-        <v>286</v>
+        <v>195</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -8003,10 +8003,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>14.22528253353204</v>
+        <v>-1.320588667232084</v>
       </c>
       <c r="E381" t="n">
-        <v>14</v>
+        <v>58059</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -8020,10 +8020,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>-2.032441033973259</v>
+        <v>0.5460533661379277</v>
       </c>
       <c r="E382" t="n">
-        <v>56025</v>
+        <v>22339</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -8037,10 +8037,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>15.70840457712365</v>
+        <v>0.5321126312770037</v>
       </c>
       <c r="E383" t="n">
-        <v>9</v>
+        <v>22506</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -8054,10 +8054,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>15.61048957165207</v>
+        <v>2.009055722608935</v>
       </c>
       <c r="E384" t="n">
-        <v>10</v>
+        <v>9576</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -8071,10 +8071,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>16.94558133262436</v>
+        <v>4.703889496286356</v>
       </c>
       <c r="E385" t="n">
-        <v>4</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -8088,10 +8088,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>0.2331803345878072</v>
+        <v>4.510172580385998</v>
       </c>
       <c r="E386" t="n">
-        <v>16873</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -8105,10 +8105,10 @@
         <v>11</v>
       </c>
       <c r="D387" t="n">
-        <v>-2.731526476482649</v>
+        <v>1.788537430109242</v>
       </c>
       <c r="E387" t="n">
-        <v>77247</v>
+        <v>10857</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -8122,10 +8122,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>-2.114886922464461</v>
+        <v>5.850422096039786</v>
       </c>
       <c r="E388" t="n">
-        <v>58285</v>
+        <v>685</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -8139,10 +8139,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>2.01403100131574</v>
+        <v>5.776827251812922</v>
       </c>
       <c r="E389" t="n">
-        <v>5806</v>
+        <v>709</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -8156,10 +8156,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>-1.240935412301157</v>
+        <v>-0.02100116281787034</v>
       </c>
       <c r="E390" t="n">
-        <v>37728</v>
+        <v>30442</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -8173,10 +8173,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>1.972756743559993</v>
+        <v>0.5075313750482016</v>
       </c>
       <c r="E391" t="n">
-        <v>5959</v>
+        <v>22800</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -8190,10 +8190,10 @@
         <v>11</v>
       </c>
       <c r="D392" t="n">
-        <v>4.458248726157281</v>
+        <v>9.555176794919248</v>
       </c>
       <c r="E392" t="n">
-        <v>1193</v>
+        <v>35</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -8207,10 +8207,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>-1.981686254191782</v>
+        <v>-0.2453411518344923</v>
       </c>
       <c r="E393" t="n">
-        <v>54663</v>
+        <v>34183</v>
       </c>
     </row>
   </sheetData>
@@ -8290,22 +8290,22 @@
         <v>0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="I2" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="J2" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="K2" t="n">
-        <v>0.054</v>
+        <v>0.056</v>
       </c>
       <c r="L2" t="n">
-        <v>0.034</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8325,25 +8325,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.2</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.4</v>
-      </c>
       <c r="H3" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>0.18</v>
       </c>
       <c r="J3" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="K3" t="n">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="L3" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8363,25 +8363,25 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.8</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.9</v>
-      </c>
       <c r="H4" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="J4" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="K4" t="n">
         <v>0.08599999999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.051</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8404,22 +8404,22 @@
         <v>0.0789</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1316</v>
+        <v>0.1579</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2632</v>
+        <v>0.2895</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2895</v>
+        <v>0.3947</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3947</v>
+        <v>0.5</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7105</v>
+        <v>0.7368</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8947000000000001</v>
+        <v>0.8421</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8439,25 +8439,25 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0526</v>
+        <v>0.1053</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2105</v>
+        <v>0.1053</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3684</v>
+        <v>0.2632</v>
       </c>
       <c r="I6" t="n">
         <v>0.4737</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5789</v>
+        <v>0.6842</v>
       </c>
       <c r="K6" t="n">
+        <v>0.7895</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.8421</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.8947000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8477,25 +8477,25 @@
         <v>0.0175</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0702</v>
+        <v>0.0877</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1579</v>
+        <v>0.1404</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2982</v>
+        <v>0.2807</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3509</v>
+        <v>0.4211</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4561</v>
+        <v>0.5614</v>
       </c>
       <c r="K7" t="n">
         <v>0.7544</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8947000000000001</v>
+        <v>0.8421</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8518,22 +8518,22 @@
         <v>0.1395</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2084</v>
+        <v>0.25</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3175</v>
+        <v>0.3492</v>
       </c>
       <c r="I8" t="n">
-        <v>0.25</v>
+        <v>0.3409</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2174</v>
+        <v>0.2754</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1004</v>
+        <v>0.1041</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0655</v>
+        <v>0.0617</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8553,25 +8553,25 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0833</v>
+        <v>0.1667</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2758</v>
+        <v>0.138</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3182</v>
+        <v>0.2273</v>
       </c>
       <c r="I9" t="n">
         <v>0.2609</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1849</v>
+        <v>0.2185</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0617</v>
+        <v>0.0578</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0334</v>
+        <v>0.0314</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8591,25 +8591,25 @@
         <v>0.0344</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1291</v>
+        <v>0.1613</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2687</v>
+        <v>0.2389</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4146</v>
+        <v>0.3902</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3738</v>
+        <v>0.4486</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3312</v>
+        <v>0.4076</v>
       </c>
       <c r="K10" t="n">
         <v>0.1544</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0965</v>
+        <v>0.09080000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8626,28 +8626,28 @@
         <v>387</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08</v>
+        <v>0.3</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.012</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8664,28 +8664,28 @@
         <v>387</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.2</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.1</v>
-      </c>
       <c r="H12" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="I12" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="K12" t="n">
-        <v>0.018</v>
+        <v>0.048</v>
       </c>
       <c r="L12" t="n">
-        <v>0.013</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8705,25 +8705,25 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I13" t="n">
-        <v>0.14</v>
+        <v>0.44</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1</v>
+        <v>0.32</v>
       </c>
       <c r="K13" t="n">
-        <v>0.038</v>
+        <v>0.098</v>
       </c>
       <c r="L13" t="n">
-        <v>0.025</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8740,28 +8740,28 @@
         <v>387</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="I14" t="n">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="J14" t="n">
-        <v>0.16</v>
+        <v>0.76</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0.48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8778,28 +8778,28 @@
         <v>387</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0294</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0294</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0294</v>
+        <v>0.0588</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0294</v>
+        <v>0.1471</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0882</v>
+        <v>0.2059</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1765</v>
+        <v>0.3824</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2647</v>
+        <v>0.7059</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3824</v>
+        <v>0.7941</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8819,25 +8819,25 @@
         <v>0.0169</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0169</v>
+        <v>0.0847</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0339</v>
+        <v>0.1186</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0847</v>
+        <v>0.2542</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1186</v>
+        <v>0.3729</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1695</v>
+        <v>0.5424</v>
       </c>
       <c r="K16" t="n">
-        <v>0.322</v>
+        <v>0.8305</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4237</v>
+        <v>0.8814</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8854,28 +8854,28 @@
         <v>387</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.0769</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0571</v>
+        <v>0.2857</v>
       </c>
       <c r="H17" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1067</v>
+        <v>0.4</v>
       </c>
       <c r="J17" t="n">
-        <v>0.064</v>
+        <v>0.304</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0381</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0234</v>
+        <v>0.0488</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8892,28 +8892,28 @@
         <v>387</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0571</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0513</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0454</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0339</v>
+        <v>0.1695</v>
       </c>
       <c r="I18" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.1667</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0896</v>
+        <v>0.194</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0337</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0251</v>
+        <v>0.0522</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8933,25 +8933,25 @@
         <v>0.0332</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0312</v>
+        <v>0.1562</v>
       </c>
       <c r="G19" t="n">
-        <v>0.058</v>
+        <v>0.2028</v>
       </c>
       <c r="H19" t="n">
-        <v>0.119</v>
+        <v>0.3571</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1284</v>
+        <v>0.4037</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1258</v>
+        <v>0.4025</v>
       </c>
       <c r="K19" t="n">
-        <v>0.068</v>
+        <v>0.1753</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0472</v>
+        <v>0.0982</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -8974,16 +8974,16 @@
         <v>0.6</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.28</v>
+        <v>0.2</v>
       </c>
       <c r="I20" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.02</v>
@@ -9009,22 +9009,22 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="I21" t="n">
         <v>0.16</v>
       </c>
       <c r="J21" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="K21" t="n">
-        <v>0.046</v>
+        <v>0.04</v>
       </c>
       <c r="L21" t="n">
         <v>0.025</v>
@@ -9047,22 +9047,22 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H22" t="n">
-        <v>0.44</v>
+        <v>0.48</v>
       </c>
       <c r="I22" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="J22" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="K22" t="n">
-        <v>0.066</v>
+        <v>0.06</v>
       </c>
       <c r="L22" t="n">
         <v>0.035</v>
@@ -9088,16 +9088,16 @@
         <v>0.3</v>
       </c>
       <c r="G23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.5</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>0.7</v>
       </c>
-      <c r="I23" t="n">
-        <v>0.9</v>
-      </c>
       <c r="J23" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -9123,22 +9123,22 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.0357</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.1786</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1429</v>
+        <v>0.25</v>
       </c>
       <c r="I24" t="n">
         <v>0.2857</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5357</v>
+        <v>0.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8214</v>
+        <v>0.7143</v>
       </c>
       <c r="L24" t="n">
         <v>0.8929</v>
@@ -9161,22 +9161,22 @@
         <v>0.0263</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1316</v>
+        <v>0.1053</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1842</v>
+        <v>0.2368</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2895</v>
+        <v>0.3158</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4474</v>
+        <v>0.3947</v>
       </c>
       <c r="J25" t="n">
-        <v>0.6316000000000001</v>
+        <v>0.5526</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8683999999999999</v>
+        <v>0.7895</v>
       </c>
       <c r="L25" t="n">
         <v>0.9211</v>
@@ -9202,16 +9202,16 @@
         <v>0.4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4</v>
+        <v>0.2857</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3</v>
+        <v>0.2333</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1636</v>
+        <v>0.1273</v>
       </c>
       <c r="K26" t="n">
         <v>0.0392</v>
@@ -9237,22 +9237,22 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1212</v>
+        <v>0.0606</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1052</v>
+        <v>0.2632</v>
       </c>
       <c r="H27" t="n">
-        <v>0.151</v>
+        <v>0.2642</v>
       </c>
       <c r="I27" t="n">
         <v>0.2051</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2344</v>
+        <v>0.2188</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0871</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="L27" t="n">
         <v>0.0486</v>
@@ -9275,22 +9275,22 @@
         <v>0.0513</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2326</v>
+        <v>0.1861</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2917</v>
+        <v>0.3749</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3492</v>
+        <v>0.381</v>
       </c>
       <c r="I28" t="n">
-        <v>0.3864</v>
+        <v>0.3409</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3478</v>
+        <v>0.3043</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1227</v>
+        <v>0.1115</v>
       </c>
       <c r="L28" t="n">
         <v>0.0674</v>
@@ -9313,22 +9313,22 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G29" t="n">
         <v>0.1</v>
       </c>
       <c r="H29" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I29" t="n">
         <v>0.08</v>
       </c>
-      <c r="I29" t="n">
-        <v>0.04</v>
-      </c>
       <c r="J29" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="K29" t="n">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="L29" t="n">
         <v>0.012</v>
@@ -9351,19 +9351,19 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G30" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0.24</v>
       </c>
       <c r="I30" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="J30" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="K30" t="n">
         <v>0.036</v>
@@ -9389,22 +9389,22 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.6</v>
       </c>
-      <c r="G31" t="n">
-        <v>0.5</v>
-      </c>
       <c r="H31" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="I31" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="J31" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="K31" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="L31" t="n">
         <v>0.033</v>
@@ -9427,22 +9427,22 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
       <c r="G32" t="n">
         <v>0.0833</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1667</v>
+        <v>0.3333</v>
       </c>
       <c r="I32" t="n">
-        <v>0.1667</v>
+        <v>0.3333</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4167</v>
+        <v>0.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9167</v>
+        <v>1</v>
       </c>
       <c r="L32" t="n">
         <v>1</v>
@@ -9465,19 +9465,19 @@
         <v>0.0303</v>
       </c>
       <c r="F33" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.1212</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1212</v>
+        <v>0.1515</v>
       </c>
       <c r="H33" t="n">
         <v>0.1818</v>
       </c>
       <c r="I33" t="n">
-        <v>0.2727</v>
+        <v>0.3333</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3333</v>
+        <v>0.3939</v>
       </c>
       <c r="K33" t="n">
         <v>0.5455</v>
@@ -9503,22 +9503,22 @@
         <v>0.0222</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0667</v>
+        <v>0.1111</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1111</v>
+        <v>0.1333</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1778</v>
+        <v>0.2222</v>
       </c>
       <c r="I34" t="n">
-        <v>0.2444</v>
+        <v>0.3333</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3556</v>
+        <v>0.4222</v>
       </c>
       <c r="K34" t="n">
-        <v>0.6444</v>
+        <v>0.6667</v>
       </c>
       <c r="L34" t="n">
         <v>0.7333</v>
@@ -9541,22 +9541,22 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.1176</v>
       </c>
       <c r="G35" t="n">
         <v>0.09089999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1081</v>
+        <v>0.2162</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0645</v>
+        <v>0.129</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0893</v>
+        <v>0.1071</v>
       </c>
       <c r="K35" t="n">
-        <v>0.043</v>
+        <v>0.0469</v>
       </c>
       <c r="L35" t="n">
         <v>0.0237</v>
@@ -9579,19 +9579,19 @@
         <v>0.0588</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1579</v>
+        <v>0.2105</v>
       </c>
       <c r="G36" t="n">
-        <v>0.186</v>
+        <v>0.2325</v>
       </c>
       <c r="H36" t="n">
         <v>0.2069</v>
       </c>
       <c r="I36" t="n">
-        <v>0.2169</v>
+        <v>0.265</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1654</v>
+        <v>0.1955</v>
       </c>
       <c r="K36" t="n">
         <v>0.0675</v>
@@ -9617,22 +9617,22 @@
         <v>0.0434</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1201</v>
+        <v>0.2</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1818</v>
+        <v>0.2181</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2286</v>
+        <v>0.2857</v>
       </c>
       <c r="I37" t="n">
-        <v>0.2316</v>
+        <v>0.3158</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2207</v>
+        <v>0.2621</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1064</v>
+        <v>0.1101</v>
       </c>
       <c r="L37" t="n">
         <v>0.06320000000000001</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I38" t="n">
         <v>0.06</v>
@@ -9670,7 +9670,7 @@
         <v>0.03</v>
       </c>
       <c r="K38" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="L38" t="n">
         <v>0.007</v>
@@ -9693,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G39" t="n">
         <v>0.3</v>
@@ -9702,16 +9702,16 @@
         <v>0.16</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="J39" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="L39" t="n">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -9731,25 +9731,25 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H40" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="I40" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="J40" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="K40" t="n">
-        <v>0.03</v>
+        <v>0.026</v>
       </c>
       <c r="L40" t="n">
-        <v>0.017</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -9769,13 +9769,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I41" t="n">
         <v>0.3</v>
@@ -9784,7 +9784,7 @@
         <v>0.3</v>
       </c>
       <c r="K41" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="L41" t="n">
         <v>0.7</v>
@@ -9807,7 +9807,7 @@
         <v>0.0526</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1053</v>
+        <v>0.1579</v>
       </c>
       <c r="G42" t="n">
         <v>0.1579</v>
@@ -9816,16 +9816,16 @@
         <v>0.2105</v>
       </c>
       <c r="I42" t="n">
-        <v>0.2632</v>
+        <v>0.3158</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2632</v>
+        <v>0.3684</v>
       </c>
       <c r="K42" t="n">
+        <v>0.4211</v>
+      </c>
+      <c r="L42" t="n">
         <v>0.4737</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.5263</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -9845,25 +9845,25 @@
         <v>0.0345</v>
       </c>
       <c r="F43" t="n">
+        <v>0.1034</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.1379</v>
       </c>
-      <c r="G43" t="n">
-        <v>0.1724</v>
-      </c>
       <c r="H43" t="n">
-        <v>0.2069</v>
+        <v>0.2414</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2759</v>
+        <v>0.3103</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2759</v>
+        <v>0.3448</v>
       </c>
       <c r="K43" t="n">
-        <v>0.5172</v>
+        <v>0.4483</v>
       </c>
       <c r="L43" t="n">
-        <v>0.5862000000000001</v>
+        <v>0.5517</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -9883,13 +9883,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2667</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1143</v>
+        <v>0.1714</v>
       </c>
       <c r="I44" t="n">
         <v>0.1</v>
@@ -9898,7 +9898,7 @@
         <v>0.0545</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0235</v>
+        <v>0.0196</v>
       </c>
       <c r="L44" t="n">
         <v>0.0139</v>
@@ -9921,7 +9921,7 @@
         <v>0.0999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1667</v>
+        <v>0.25</v>
       </c>
       <c r="G45" t="n">
         <v>0.2069</v>
@@ -9930,16 +9930,16 @@
         <v>0.1818</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1449</v>
+        <v>0.1739</v>
       </c>
       <c r="J45" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.1176</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0347</v>
+        <v>0.0308</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0196</v>
+        <v>0.0177</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -9959,25 +9959,25 @@
         <v>0.0667</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2352</v>
+        <v>0.1764</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2564</v>
+        <v>0.2051</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2222</v>
+        <v>0.2593</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2025</v>
+        <v>0.2278</v>
       </c>
       <c r="J46" t="n">
-        <v>0.124</v>
+        <v>0.155</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0567</v>
+        <v>0.0491</v>
       </c>
       <c r="L46" t="n">
-        <v>0.033</v>
+        <v>0.0311</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -9994,28 +9994,28 @@
         <v>387</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H47" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="J47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="K47" t="n">
-        <v>0.02</v>
+        <v>0.024</v>
       </c>
       <c r="L47" t="n">
-        <v>0.012</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -10035,25 +10035,25 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H48" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I48" t="n">
         <v>0.08</v>
       </c>
-      <c r="I48" t="n">
-        <v>0.06</v>
-      </c>
       <c r="J48" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="K48" t="n">
-        <v>0.024</v>
+        <v>0.022</v>
       </c>
       <c r="L48" t="n">
-        <v>0.012</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -10070,28 +10070,28 @@
         <v>387</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="I49" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="J49" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="K49" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="L49" t="n">
-        <v>0.024</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -10108,28 +10108,28 @@
         <v>387</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>0.07140000000000001</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2143</v>
+        <v>0.4286</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3571</v>
+        <v>0.5714</v>
       </c>
       <c r="J50" t="n">
-        <v>0.5</v>
+        <v>0.6429</v>
       </c>
       <c r="K50" t="n">
-        <v>0.7143</v>
+        <v>0.8571</v>
       </c>
       <c r="L50" t="n">
-        <v>0.8571</v>
+        <v>0.9286</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -10149,25 +10149,25 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>0.1176</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1176</v>
+        <v>0.1765</v>
       </c>
       <c r="H51" t="n">
-        <v>0.1176</v>
+        <v>0.1765</v>
       </c>
       <c r="I51" t="n">
-        <v>0.1765</v>
+        <v>0.2353</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2353</v>
+        <v>0.2941</v>
       </c>
       <c r="K51" t="n">
-        <v>0.7059</v>
+        <v>0.6471</v>
       </c>
       <c r="L51" t="n">
-        <v>0.7059</v>
+        <v>0.8235</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -10184,28 +10184,28 @@
         <v>387</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>0.0968</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0645</v>
+        <v>0.1613</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1613</v>
+        <v>0.2903</v>
       </c>
       <c r="I52" t="n">
-        <v>0.2581</v>
+        <v>0.3871</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3548</v>
+        <v>0.4516</v>
       </c>
       <c r="K52" t="n">
-        <v>0.7097</v>
+        <v>0.7419</v>
       </c>
       <c r="L52" t="n">
-        <v>0.7742</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -10222,28 +10222,28 @@
         <v>387</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.1333</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>0.1052</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="H53" t="n">
-        <v>0.1538</v>
+        <v>0.3077</v>
       </c>
       <c r="I53" t="n">
-        <v>0.1562</v>
+        <v>0.25</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1228</v>
+        <v>0.1579</v>
       </c>
       <c r="K53" t="n">
-        <v>0.0389</v>
+        <v>0.0467</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0237</v>
+        <v>0.0256</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -10263,25 +10263,25 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.1818</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1481</v>
+        <v>0.2222</v>
       </c>
       <c r="H54" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.1429</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0896</v>
+        <v>0.1194</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0684</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>0.0464</v>
+        <v>0.0426</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0236</v>
+        <v>0.0275</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -10298,28 +10298,28 @@
         <v>387</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>0.0626</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0975</v>
+        <v>0.2439</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1786</v>
+        <v>0.3214</v>
       </c>
       <c r="I55" t="n">
-        <v>0.1975</v>
+        <v>0.2963</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1679</v>
+        <v>0.2137</v>
       </c>
       <c r="K55" t="n">
-        <v>0.0829</v>
+        <v>0.0866</v>
       </c>
       <c r="L55" t="n">
-        <v>0.0466</v>
+        <v>0.0524</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -10336,13 +10336,13 @@
         <v>387</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H56" t="n">
         <v>0.12</v>
@@ -10374,28 +10374,28 @@
         <v>387</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H57" t="n">
-        <v>0.52</v>
+        <v>0.24</v>
       </c>
       <c r="I57" t="n">
-        <v>0.28</v>
+        <v>0.16</v>
       </c>
       <c r="J57" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
       <c r="K57" t="n">
-        <v>0.04</v>
+        <v>0.022</v>
       </c>
       <c r="L57" t="n">
-        <v>0.02</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -10418,22 +10418,22 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
-        <v>0.64</v>
+        <v>0.36</v>
       </c>
       <c r="I58" t="n">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="J58" t="n">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
       <c r="K58" t="n">
-        <v>0.05</v>
+        <v>0.032</v>
       </c>
       <c r="L58" t="n">
-        <v>0.025</v>
+        <v>0.016</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -10450,13 +10450,13 @@
         <v>387</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H59" t="n">
         <v>0.6</v>
@@ -10488,28 +10488,28 @@
         <v>387</v>
       </c>
       <c r="E60" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G60" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="H60" t="n">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="I60" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="J60" t="n">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -10532,22 +10532,22 @@
         <v>0.2</v>
       </c>
       <c r="G61" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="H61" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K61" t="n">
         <v>0.64</v>
       </c>
-      <c r="I61" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1</v>
-      </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -10564,13 +10564,13 @@
         <v>387</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0.2</v>
@@ -10602,28 +10602,28 @@
         <v>387</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09520000000000001</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="G63" t="n">
-        <v>0.4667</v>
+        <v>0.2</v>
       </c>
       <c r="H63" t="n">
-        <v>0.5778</v>
+        <v>0.2667</v>
       </c>
       <c r="I63" t="n">
-        <v>0.4</v>
+        <v>0.2286</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3167</v>
+        <v>0.1333</v>
       </c>
       <c r="K63" t="n">
-        <v>0.0769</v>
+        <v>0.0423</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0392</v>
+        <v>0.0216</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -10646,22 +10646,22 @@
         <v>0.3333</v>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>0.3429</v>
       </c>
       <c r="H64" t="n">
-        <v>0.64</v>
+        <v>0.36</v>
       </c>
       <c r="I64" t="n">
-        <v>0.48</v>
+        <v>0.32</v>
       </c>
       <c r="J64" t="n">
-        <v>0.384</v>
+        <v>0.208</v>
       </c>
       <c r="K64" t="n">
-        <v>0.09520000000000001</v>
+        <v>0.061</v>
       </c>
       <c r="L64" t="n">
-        <v>0.0488</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -10684,22 +10684,22 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0.02</v>
       </c>
       <c r="J65" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K65" t="n">
         <v>0.01</v>
       </c>
-      <c r="K65" t="n">
-        <v>0.008</v>
-      </c>
       <c r="L65" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -10719,25 +10719,25 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H66" t="n">
-        <v>0.48</v>
+        <v>0.08</v>
       </c>
       <c r="I66" t="n">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="J66" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="K66" t="n">
-        <v>0.032</v>
+        <v>0.016</v>
       </c>
       <c r="L66" t="n">
-        <v>0.016</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -10757,25 +10757,25 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="H67" t="n">
-        <v>0.52</v>
+        <v>0.08</v>
       </c>
       <c r="I67" t="n">
-        <v>0.28</v>
+        <v>0.06</v>
       </c>
       <c r="J67" t="n">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="K67" t="n">
-        <v>0.04</v>
+        <v>0.026</v>
       </c>
       <c r="L67" t="n">
-        <v>0.02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -10798,22 +10798,22 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0.125</v>
       </c>
       <c r="J68" t="n">
-        <v>0.125</v>
+        <v>0.375</v>
       </c>
       <c r="K68" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L68" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -10833,25 +10833,25 @@
         <v>0.0238</v>
       </c>
       <c r="F69" t="n">
-        <v>0.119</v>
+        <v>0.0476</v>
       </c>
       <c r="G69" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="K69" t="n">
         <v>0.1905</v>
       </c>
-      <c r="H69" t="n">
-        <v>0.2857</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.3095</v>
-      </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>0.3333</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.381</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.381</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -10871,25 +10871,25 @@
         <v>0.02</v>
       </c>
       <c r="F70" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J70" t="n">
         <v>0.1</v>
       </c>
-      <c r="G70" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H70" t="n">
+      <c r="K70" t="n">
         <v>0.26</v>
       </c>
-      <c r="I70" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0.4</v>
-      </c>
       <c r="L70" t="n">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -10912,22 +10912,22 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1111</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.0606</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0.0345</v>
       </c>
       <c r="J71" t="n">
-        <v>0.0185</v>
+        <v>0.0556</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0157</v>
+        <v>0.0197</v>
       </c>
       <c r="L71" t="n">
-        <v>0.007900000000000001</v>
+        <v>0.009900000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -10947,25 +10947,25 @@
         <v>0.0465</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2127</v>
+        <v>0.0851</v>
       </c>
       <c r="G72" t="n">
-        <v>0.3077</v>
+        <v>0.0769</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3582</v>
+        <v>0.0597</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2826</v>
+        <v>0.0435</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1972</v>
+        <v>0.0282</v>
       </c>
       <c r="K72" t="n">
-        <v>0.059</v>
+        <v>0.0295</v>
       </c>
       <c r="L72" t="n">
-        <v>0.0307</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -10985,25 +10985,25 @@
         <v>0.0392</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1818</v>
+        <v>0.0727</v>
       </c>
       <c r="G73" t="n">
-        <v>0.3</v>
+        <v>0.0667</v>
       </c>
       <c r="H73" t="n">
-        <v>0.3467</v>
+        <v>0.0533</v>
       </c>
       <c r="I73" t="n">
-        <v>0.28</v>
+        <v>0.06</v>
       </c>
       <c r="J73" t="n">
-        <v>0.2</v>
+        <v>0.0667</v>
       </c>
       <c r="K73" t="n">
-        <v>0.0727</v>
+        <v>0.0473</v>
       </c>
       <c r="L73" t="n">
-        <v>0.0381</v>
+        <v>0.0362</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -11023,13 +11023,13 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G74" t="n">
         <v>0.2</v>
       </c>
       <c r="H74" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="I74" t="n">
         <v>0.08</v>
@@ -11058,25 +11058,25 @@
         <v>387</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G75" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H75" t="n">
-        <v>0.16</v>
+        <v>0.28</v>
       </c>
       <c r="I75" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="J75" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="K75" t="n">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="L75" t="n">
         <v>0.02</v>
@@ -11096,25 +11096,25 @@
         <v>387</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
         <v>0.8</v>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H76" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I76" t="n">
         <v>0.28</v>
       </c>
-      <c r="I76" t="n">
-        <v>0.26</v>
-      </c>
       <c r="J76" t="n">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
       <c r="K76" t="n">
-        <v>0.048</v>
+        <v>0.052</v>
       </c>
       <c r="L76" t="n">
         <v>0.027</v>
@@ -11137,13 +11137,13 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1429</v>
+        <v>0.2857</v>
       </c>
       <c r="G77" t="n">
         <v>0.2857</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4286</v>
+        <v>0.5714</v>
       </c>
       <c r="I77" t="n">
         <v>0.5714</v>
@@ -11172,25 +11172,25 @@
         <v>387</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.0606</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.1212</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1212</v>
+        <v>0.2121</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2727</v>
+        <v>0.303</v>
       </c>
       <c r="J78" t="n">
-        <v>0.3333</v>
+        <v>0.4545</v>
       </c>
       <c r="K78" t="n">
-        <v>0.5152</v>
+        <v>0.5758</v>
       </c>
       <c r="L78" t="n">
         <v>0.6061</v>
@@ -11210,25 +11210,25 @@
         <v>387</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="F79" t="n">
         <v>0.1</v>
       </c>
       <c r="G79" t="n">
-        <v>0.125</v>
+        <v>0.15</v>
       </c>
       <c r="H79" t="n">
-        <v>0.175</v>
+        <v>0.275</v>
       </c>
       <c r="I79" t="n">
-        <v>0.325</v>
+        <v>0.35</v>
       </c>
       <c r="J79" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="K79" t="n">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="L79" t="n">
         <v>0.675</v>
@@ -11251,13 +11251,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1667</v>
+        <v>0.3333</v>
       </c>
       <c r="G80" t="n">
         <v>0.2353</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="I80" t="n">
         <v>0.1404</v>
@@ -11286,25 +11286,25 @@
         <v>387</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1579</v>
+        <v>0.1053</v>
       </c>
       <c r="G81" t="n">
-        <v>0.1395</v>
+        <v>0.186</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1379</v>
+        <v>0.2414</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2169</v>
+        <v>0.241</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1654</v>
+        <v>0.2256</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0638</v>
+        <v>0.0713</v>
       </c>
       <c r="L81" t="n">
         <v>0.0387</v>
@@ -11324,25 +11324,25 @@
         <v>387</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>0.0488</v>
       </c>
       <c r="F82" t="n">
         <v>0.1778</v>
       </c>
       <c r="G82" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2154</v>
+        <v>0.3385</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2889</v>
+        <v>0.3111</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2286</v>
+        <v>0.2857</v>
       </c>
       <c r="K82" t="n">
-        <v>0.08890000000000001</v>
+        <v>0.0963</v>
       </c>
       <c r="L82" t="n">
         <v>0.0519</v>
@@ -11406,16 +11406,16 @@
         <v>0.6</v>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
-        <v>0.48</v>
+        <v>0.52</v>
       </c>
       <c r="I84" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="J84" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="K84" t="n">
         <v>0.032</v>
@@ -11444,16 +11444,16 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="I85" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="J85" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="K85" t="n">
         <v>0.036</v>
@@ -11520,16 +11520,16 @@
         <v>0.1875</v>
       </c>
       <c r="G87" t="n">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="H87" t="n">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="K87" t="n">
         <v>1</v>
@@ -11558,16 +11558,16 @@
         <v>0.2778</v>
       </c>
       <c r="G88" t="n">
-        <v>0.5556</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
-        <v>0.7778</v>
+        <v>0.8333</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0.9444</v>
       </c>
       <c r="J88" t="n">
-        <v>1</v>
+        <v>0.9444</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
@@ -11634,16 +11634,16 @@
         <v>0.2857</v>
       </c>
       <c r="G90" t="n">
-        <v>0.6153999999999999</v>
+        <v>0.5385</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5854</v>
+        <v>0.6341</v>
       </c>
       <c r="I90" t="n">
-        <v>0.4848</v>
+        <v>0.4545</v>
       </c>
       <c r="J90" t="n">
-        <v>0.2759</v>
+        <v>0.2586</v>
       </c>
       <c r="K90" t="n">
         <v>0.062</v>
@@ -11672,16 +11672,16 @@
         <v>0.4348</v>
       </c>
       <c r="G91" t="n">
-        <v>0.7143</v>
+        <v>0.6429</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6512</v>
+        <v>0.6977</v>
       </c>
       <c r="I91" t="n">
-        <v>0.5294</v>
+        <v>0.5</v>
       </c>
       <c r="J91" t="n">
-        <v>0.3051</v>
+        <v>0.2881</v>
       </c>
       <c r="K91" t="n">
         <v>0.06950000000000001</v>
@@ -11764,25 +11764,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06842105263157895</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09473684210526316</v>
+        <v>0.1287280701754386</v>
       </c>
       <c r="H2" t="n">
-        <v>0.159530151289154</v>
+        <v>0.2024137047163363</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1662620974335849</v>
+        <v>0.238525888997857</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1854602168583245</v>
+        <v>0.2643617336702667</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2271837979205938</v>
+        <v>0.2912416077507557</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2349433324268137</v>
+        <v>0.2959650647265267</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -11802,25 +11802,25 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0131578947368421</v>
+        <v>0.03421052631578948</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07664995822890559</v>
+        <v>0.03421052631578948</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1248813321181742</v>
+        <v>0.07283551688586014</v>
       </c>
       <c r="I3" t="n">
-        <v>0.154196555660902</v>
+        <v>0.1180716475535563</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1701774960233833</v>
+        <v>0.1495877247972991</v>
       </c>
       <c r="K3" t="n">
-        <v>0.185203889122583</v>
+        <v>0.1569880035521939</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1867229669529824</v>
+        <v>0.1580075014494794</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -11840,25 +11840,25 @@
         <v>0.01754385964912281</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06228070175438596</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1386730715678084</v>
+        <v>0.1346491228070175</v>
       </c>
       <c r="H4" t="n">
-        <v>0.247071686649249</v>
+        <v>0.2425933175647134</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2765106253312879</v>
+        <v>0.3203191441345117</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3106552612819413</v>
+        <v>0.3742453306454921</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3681176268494314</v>
+        <v>0.409216785798999</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3774636990647544</v>
+        <v>0.4149445193733006</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -11875,28 +11875,28 @@
         <v>387</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004</v>
+        <v>0.2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02166666666666666</v>
+        <v>0.2916623666188884</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02166666666666666</v>
+        <v>0.3614363207349479</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02166666666666666</v>
+        <v>0.4053228048787097</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02941103797051106</v>
+        <v>0.4341321299395771</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03094515786139838</v>
+        <v>0.4341321299395771</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -11913,28 +11913,28 @@
         <v>387</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.009150326797385621</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.02394533571004159</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03359224261613813</v>
+        <v>0.0338680926916221</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04037656025810553</v>
+        <v>0.06293997873431509</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04311758812895349</v>
+        <v>0.09145290504337024</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04520537977406922</v>
+        <v>0.09503068007347204</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -11954,25 +11954,25 @@
         <v>0.01694915254237288</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01694915254237288</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02033898305084746</v>
+        <v>0.107909604519774</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03043785310734463</v>
+        <v>0.1868621368805599</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03683833207414482</v>
+        <v>0.2467219098759261</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04399569417008677</v>
+        <v>0.3198448865415119</v>
       </c>
       <c r="K7" t="n">
-        <v>0.05360973911563777</v>
+        <v>0.3778605005837499</v>
       </c>
       <c r="L7" t="n">
-        <v>0.05723521213140204</v>
+        <v>0.3819169431136485</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -11992,25 +11992,25 @@
         <v>0.1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2416666666666666</v>
+        <v>0.26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3638888888888888</v>
+        <v>0.31</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4550653594771242</v>
+        <v>0.335</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5021865715983362</v>
+        <v>0.3645277633627401</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5021865715983362</v>
+        <v>0.3645277633627401</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5114458308575955</v>
+        <v>0.3738214266243611</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5114458308575955</v>
+        <v>0.3738214266243611</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -12030,25 +12030,25 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03214285714285715</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03214285714285715</v>
+        <v>0.06986961451247166</v>
       </c>
       <c r="H9" t="n">
-        <v>0.04642857142857143</v>
+        <v>0.100242019884877</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06980901451489688</v>
+        <v>0.1108240304668876</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1141353144143639</v>
+        <v>0.1405632954319345</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1480128068593672</v>
+        <v>0.1573600631425234</v>
       </c>
       <c r="L9" t="n">
-        <v>0.150400423372431</v>
+        <v>0.1631420526336811</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -12068,25 +12068,25 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.131578947368421</v>
+        <v>0.09342105263157895</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1783625730994152</v>
+        <v>0.2080096073517126</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2416494668042656</v>
+        <v>0.2601238673607094</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3012937647148174</v>
+        <v>0.2901789682103368</v>
       </c>
       <c r="J10" t="n">
-        <v>0.359157802969499</v>
+        <v>0.3257244713194812</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4035086415146178</v>
+        <v>0.3510731458222426</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4059880781533837</v>
+        <v>0.3572061580005201</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -12106,25 +12106,25 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0119047619047619</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02472527472527472</v>
+        <v>0.07474747474747474</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02472527472527472</v>
+        <v>0.07474747474747474</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04067183843448268</v>
+        <v>0.08643048128342246</v>
       </c>
       <c r="K11" t="n">
-        <v>0.06445853985903777</v>
+        <v>0.119741537328523</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06592912809433189</v>
+        <v>0.119741537328523</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -12144,25 +12144,25 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0787878787878788</v>
+        <v>0.1075757575757576</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1292207792207792</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1113009797220324</v>
+        <v>0.1364935064935065</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1303455925166452</v>
+        <v>0.1757226051826778</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1372598252373295</v>
+        <v>0.1839221232344126</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1536332736685102</v>
+        <v>0.2019823369036619</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1560738244818735</v>
+        <v>0.2046743704629402</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -12182,25 +12182,25 @@
         <v>0.02222222222222222</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05777777777777778</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0815873015873016</v>
+        <v>0.1301587301587301</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1123115481010218</v>
+        <v>0.1741317941317941</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1298269801997873</v>
+        <v>0.2161144530336908</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1514190185837372</v>
+        <v>0.2344383189785361</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1869750352067841</v>
+        <v>0.2786036407378596</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1908216293639719</v>
+        <v>0.2817723781378024</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -12220,25 +12220,25 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1166666666666667</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.04206773618538324</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1254901960784313</v>
+        <v>0.04206773618538324</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1254901960784313</v>
+        <v>0.04206773618538324</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1345703049956517</v>
+        <v>0.04707151547487682</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1359164588418055</v>
+        <v>0.04882099506579002</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -12258,25 +12258,25 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07368421052631578</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09624060150375939</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1137844611528822</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1231829573934837</v>
+        <v>0.1844807965860598</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1231829573934837</v>
+        <v>0.1904230716285046</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1314419867099943</v>
+        <v>0.1933470482366917</v>
       </c>
       <c r="L15" t="n">
-        <v>0.132046252828793</v>
+        <v>0.1939551152591902</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -12296,25 +12296,25 @@
         <v>0.03448275862068965</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1310344827586207</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1556650246305419</v>
+        <v>0.1264367816091954</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1729064039408867</v>
+        <v>0.1603548159075542</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1896406838597508</v>
+        <v>0.174017444052941</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1896406838597508</v>
+        <v>0.1795791793143425</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2056920930200044</v>
+        <v>0.1870921461869153</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2074261284133295</v>
+        <v>0.1891505428905237</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -12331,28 +12331,28 @@
         <v>387</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.08730158730158731</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02696969696969697</v>
+        <v>0.1618616677440207</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04468968819199234</v>
+        <v>0.1918768653124097</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06218395862743924</v>
+        <v>0.1992660278739861</v>
       </c>
       <c r="K17" t="n">
-        <v>0.07718012362360424</v>
+        <v>0.2108716111308341</v>
       </c>
       <c r="L17" t="n">
-        <v>0.07935971324359363</v>
+        <v>0.212633606251463</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -12372,25 +12372,25 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02661064425770308</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02661064425770308</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03151260504201681</v>
+        <v>0.07571644042232277</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0351890756302521</v>
+        <v>0.080876399142653</v>
       </c>
       <c r="K18" t="n">
-        <v>0.05034389629459694</v>
+        <v>0.09842822144176325</v>
       </c>
       <c r="L18" t="n">
-        <v>0.05034389629459694</v>
+        <v>0.1016444302208937</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12407,28 +12407,28 @@
         <v>387</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.07795698924731183</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01459293394777266</v>
+        <v>0.1084229390681003</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04059488898198575</v>
+        <v>0.1654470555798829</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0592551800148054</v>
+        <v>0.1987629161091958</v>
       </c>
       <c r="J19" t="n">
-        <v>0.07635723711330462</v>
+        <v>0.2113109714533403</v>
       </c>
       <c r="K19" t="n">
-        <v>0.1054170289799432</v>
+        <v>0.2421530631990791</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1074300011003732</v>
+        <v>0.2471705100305863</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -12445,28 +12445,28 @@
         <v>387</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07261904761904761</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="I20" t="n">
-        <v>0.09761904761904762</v>
+        <v>0.480919540229885</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1145682001614205</v>
+        <v>0.4952052545155993</v>
       </c>
       <c r="K20" t="n">
-        <v>0.1145682001614205</v>
+        <v>0.4952052545155993</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1145682001614205</v>
+        <v>0.4952052545155993</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -12483,28 +12483,28 @@
         <v>387</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.05</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.25</v>
-      </c>
       <c r="G21" t="n">
-        <v>0.3278571428571428</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5119052711993888</v>
+        <v>0.1043715538847118</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5308241901183077</v>
+        <v>0.1258451551455471</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5986802727607471</v>
+        <v>0.1258451551455471</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6045282259771214</v>
+        <v>0.131581506851733</v>
       </c>
       <c r="L21" t="n">
-        <v>0.6045282259771214</v>
+        <v>0.131581506851733</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -12527,22 +12527,22 @@
         <v>0.2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2622857142857143</v>
+        <v>0.2342857142857143</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5154449622273151</v>
+        <v>0.2767558897243108</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5561544216867744</v>
+        <v>0.3169558842896758</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6393504500669058</v>
+        <v>0.3243844557182472</v>
       </c>
       <c r="K22" t="n">
-        <v>0.64519840328328</v>
+        <v>0.3313451319987349</v>
       </c>
       <c r="L22" t="n">
-        <v>0.64519840328328</v>
+        <v>0.3313451319987349</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -12565,22 +12565,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02083333333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.003571428571428571</v>
       </c>
       <c r="J23" t="n">
-        <v>0.02083333333333333</v>
+        <v>0.01243975815638052</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02410196539703181</v>
+        <v>0.01757587718138844</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02410196539703181</v>
+        <v>0.01757587718138844</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -12600,25 +12600,25 @@
         <v>0.02380952380952381</v>
       </c>
       <c r="F24" t="n">
-        <v>0.119047619047619</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1770219198790627</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2399560408958905</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2510104626645979</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2545565619553781</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2589266288254449</v>
+        <v>0.05105487719978614</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2589266288254449</v>
+        <v>0.05343834240606655</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -12638,25 +12638,25 @@
         <v>0.02</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1757777777777778</v>
+        <v>0.04</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2337903091060986</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2437903091060986</v>
+        <v>0.04171428571428572</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2469817984678007</v>
+        <v>0.04427817857873061</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2542602424540246</v>
+        <v>0.05106795148437839</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2542602424540246</v>
+        <v>0.05395733891331469</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -12676,25 +12676,25 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02857142857142857</v>
+        <v>0.09285714285714286</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07619047619047618</v>
+        <v>0.09285714285714286</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1047619047619048</v>
+        <v>0.1603896103896104</v>
       </c>
       <c r="I26" t="n">
-        <v>0.116919959473151</v>
+        <v>0.1603896103896104</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1246004510246103</v>
+        <v>0.1731447124304267</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1312579856747215</v>
+        <v>0.1790924240348977</v>
       </c>
       <c r="L26" t="n">
-        <v>0.1312579856747215</v>
+        <v>0.1790924240348977</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -12711,28 +12711,28 @@
         <v>387</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05808080808080807</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05808080808080807</v>
+        <v>0.08874458874458874</v>
       </c>
       <c r="H27" t="n">
-        <v>0.06414141414141414</v>
+        <v>0.1238417138417138</v>
       </c>
       <c r="I27" t="n">
-        <v>0.09158694635829062</v>
+        <v>0.1454506604506604</v>
       </c>
       <c r="J27" t="n">
-        <v>0.09947970046086886</v>
+        <v>0.1785410789680844</v>
       </c>
       <c r="K27" t="n">
-        <v>0.1130785857693088</v>
+        <v>0.1875682419711115</v>
       </c>
       <c r="L27" t="n">
-        <v>0.1154996866511343</v>
+        <v>0.1885426159358392</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -12749,28 +12749,28 @@
         <v>387</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06791666666666667</v>
+        <v>0.08875</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08875000000000001</v>
+        <v>0.1253571428571429</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1075</v>
+        <v>0.1987405927405928</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1470957590666494</v>
+        <v>0.2245739260739261</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1603987872949011</v>
+        <v>0.2691329348353476</v>
       </c>
       <c r="K28" t="n">
-        <v>0.1798390952537777</v>
+        <v>0.2828483063631969</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1825761414411015</v>
+        <v>0.2839335153664123</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -12831,22 +12831,22 @@
         <v>0.1104166666666667</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3422123015873016</v>
+        <v>0.2922123015873016</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5424342610004375</v>
+        <v>0.5709824489236254</v>
       </c>
       <c r="I30" t="n">
-        <v>0.6595902930271591</v>
+        <v>0.6235034573269868</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6595902930271591</v>
+        <v>0.6235034573269868</v>
       </c>
       <c r="K30" t="n">
-        <v>0.6595902930271591</v>
+        <v>0.6323530148491107</v>
       </c>
       <c r="L30" t="n">
-        <v>0.6595902930271591</v>
+        <v>0.6323530148491107</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -12869,22 +12869,22 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7679738562091504</v>
+        <v>0.7963482595835537</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8866119018586902</v>
+        <v>0.8494761774173539</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8866119018586902</v>
+        <v>0.8494761774173539</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8866119018586902</v>
+        <v>0.8583257349394778</v>
       </c>
       <c r="L31" t="n">
-        <v>0.8866119018586902</v>
+        <v>0.8583257349394778</v>
       </c>
     </row>
   </sheetData>
